--- a/Eksperimen 6/ACES/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ACES/training_results_with_epoch.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C2948-E093-4862-8592-0D9D8D5C8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -47,7 +53,91 @@
     <t>ACES</t>
   </si>
   <si>
+    <t>Open_LAG</t>
+  </si>
+  <si>
+    <t>High_LAG</t>
+  </si>
+  <si>
+    <t>Low_LAG</t>
+  </si>
+  <si>
+    <t>Volume_LAG</t>
+  </si>
+  <si>
+    <t>Close_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_LAG</t>
+  </si>
+  <si>
+    <t>Open_Low_LAG</t>
+  </si>
+  <si>
+    <t>Open_Volume_LAG</t>
+  </si>
+  <si>
+    <t>High_Low_LAG</t>
+  </si>
+  <si>
+    <t>High_Volume_LAG</t>
+  </si>
+  <si>
+    <t>Low_Volume_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_Low_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_Volume_LAG</t>
+  </si>
+  <si>
+    <t>High_Low_Volume_LAG</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_EMA</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_RSI</t>
+  </si>
+  <si>
     <t>OHLVC_LAG_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_EMA</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_RSI</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_EMA_RSI</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_EMA_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_RSI_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_EMA_RSI</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_RSI_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_EMA_RSI_MACD</t>
+  </si>
+  <si>
+    <t>OHLVC_LAG_MA_EMA_RSI_MACD</t>
   </si>
   <si>
     <t>Best_Epoch_Avg</t>
@@ -74,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +228,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -216,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -250,9 +349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,14 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -472,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>245179.34375</v>
+        <v>134820.375</v>
       </c>
       <c r="F2">
-        <v>475.1584777832031</v>
+        <v>339.59469604492188</v>
       </c>
       <c r="G2">
-        <v>0.3904347015061866</v>
+        <v>0.2754963641992183</v>
       </c>
       <c r="H2">
-        <v>495.1340480485222</v>
+        <v>367.05035345697752</v>
       </c>
       <c r="I2">
-        <v>-11.76712233823066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-5.9942480116816172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -501,25 +611,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>13011.39453125</v>
+        <v>14982.7568359375</v>
       </c>
       <c r="F3">
-        <v>90.97750854492188</v>
+        <v>96.806785583496094</v>
       </c>
       <c r="G3">
-        <v>0.0683341803070323</v>
+        <v>7.3761844795823303E-2</v>
       </c>
       <c r="H3">
-        <v>114.0165649203273</v>
+        <v>122.1237802650173</v>
       </c>
       <c r="I3">
-        <v>0.4290320219219085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.3410202178077118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -530,25 +640,25 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E4">
-        <v>5923.32568359375</v>
+        <v>5958.15283203125</v>
       </c>
       <c r="F4">
-        <v>61.12566375732422</v>
+        <v>61.055866241455078</v>
       </c>
       <c r="G4">
-        <v>0.0480851487425469</v>
+        <v>4.8417311631900398E-2</v>
       </c>
       <c r="H4">
-        <v>76.54341360291795</v>
+        <v>76.737063086779699</v>
       </c>
       <c r="I4">
-        <v>0.5384638702420635</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.5340850107720887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -559,25 +669,25 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>23094.2578125</v>
+        <v>4423.24609375</v>
       </c>
       <c r="F5">
-        <v>118.9683227539062</v>
+        <v>53.167728424072273</v>
       </c>
       <c r="G5">
-        <v>0.1947326760757761</v>
+        <v>0.1022500383468487</v>
       </c>
       <c r="H5">
-        <v>150.6690577255421</v>
+        <v>65.06121344388545</v>
       </c>
       <c r="I5">
-        <v>-0.9902350566596998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.60467162146122666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -588,22 +698,4082 @@
         <v>5</v>
       </c>
       <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3976.59521484375</v>
+      </c>
+      <c r="F6">
+        <v>49.427791595458977</v>
+      </c>
+      <c r="G6">
+        <v>6.1585343529692901E-2</v>
+      </c>
+      <c r="H6">
+        <v>60.869417598636488</v>
+      </c>
+      <c r="I6">
+        <v>-3.5664341685865998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100396.8671875</v>
+      </c>
+      <c r="F7">
+        <v>280.51123046875</v>
+      </c>
+      <c r="G7">
+        <v>0.2248101807204691</v>
+      </c>
+      <c r="H7">
+        <v>316.82587807049782</v>
+      </c>
+      <c r="I7">
+        <v>-4.2233780692881693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>29856.794921875</v>
+      </c>
+      <c r="F8">
+        <v>146.51512145996091</v>
+      </c>
+      <c r="G8">
+        <v>0.1045265141144</v>
+      </c>
+      <c r="H8">
+        <v>172.5764790437303</v>
+      </c>
+      <c r="I8">
+        <v>-0.3037666199591354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>5634.041015625</v>
+      </c>
+      <c r="F9">
+        <v>59.071552276611328</v>
+      </c>
+      <c r="G9">
+        <v>4.67444965209989E-2</v>
+      </c>
+      <c r="H9">
+        <v>74.856529368638107</v>
+      </c>
+      <c r="I9">
+        <v>0.56054570961362438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>3725.675048828125</v>
+      </c>
+      <c r="F10">
+        <v>47.985088348388672</v>
+      </c>
+      <c r="G10">
+        <v>9.1024817355169096E-2</v>
+      </c>
+      <c r="H10">
+        <v>59.208930574009088</v>
+      </c>
+      <c r="I10">
+        <v>0.66580926293981657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>3842.026123046875</v>
+      </c>
+      <c r="F11">
+        <v>48.470726013183601</v>
+      </c>
+      <c r="G11">
+        <v>6.0353142586086997E-2</v>
+      </c>
+      <c r="H11">
+        <v>59.701339783600389</v>
+      </c>
+      <c r="I11">
+        <v>3.0224219583662702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>4511.3623046875</v>
-      </c>
-      <c r="F6">
-        <v>53.47970581054688</v>
-      </c>
-      <c r="G6">
-        <v>0.0658821103731185</v>
-      </c>
-      <c r="H6">
-        <v>66.28854295863745</v>
-      </c>
-      <c r="I6">
-        <v>-0.1285296247334646</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>475520.875</v>
+      </c>
+      <c r="F12">
+        <v>578.64324951171875</v>
+      </c>
+      <c r="G12">
+        <v>0.45984664598487829</v>
+      </c>
+      <c r="H12">
+        <v>689.50837220812082</v>
+      </c>
+      <c r="I12">
+        <v>-23.73461997434018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>19787.08203125</v>
+      </c>
+      <c r="F13">
+        <v>116.06048583984381</v>
+      </c>
+      <c r="G13">
+        <v>8.5439688712577094E-2</v>
+      </c>
+      <c r="H13">
+        <v>140.65349254722449</v>
+      </c>
+      <c r="I13">
+        <v>0.13395167668541499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>6013.52783203125</v>
+      </c>
+      <c r="F14">
+        <v>61.472869873046882</v>
+      </c>
+      <c r="G14">
+        <v>4.8716305881945803E-2</v>
+      </c>
+      <c r="H14">
+        <v>77.198895093837336</v>
+      </c>
+      <c r="I14">
+        <v>0.53039493679465033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>4551.3115234375</v>
+      </c>
+      <c r="F15">
+        <v>55.77294921875</v>
+      </c>
+      <c r="G15">
+        <v>0.1073352985976057</v>
+      </c>
+      <c r="H15">
+        <v>65.956712944511779</v>
+      </c>
+      <c r="I15">
+        <v>0.59375238433786548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>3621.72314453125</v>
+      </c>
+      <c r="F16">
+        <v>46.998710632324219</v>
+      </c>
+      <c r="G16">
+        <v>5.8826821002787702E-2</v>
+      </c>
+      <c r="H16">
+        <v>57.779478463948386</v>
+      </c>
+      <c r="I16">
+        <v>8.4941678401494594E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>136964.640625</v>
+      </c>
+      <c r="F17">
+        <v>342.83877563476563</v>
+      </c>
+      <c r="G17">
+        <v>0.27828177725835118</v>
+      </c>
+      <c r="H17">
+        <v>370.04683275767007</v>
+      </c>
+      <c r="I17">
+        <v>-6.124950625467914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>98</v>
+      </c>
+      <c r="E18">
+        <v>15325.1279296875</v>
+      </c>
+      <c r="F18">
+        <v>95.667251586914063</v>
+      </c>
+      <c r="G18">
+        <v>7.3302242048068997E-2</v>
+      </c>
+      <c r="H18">
+        <v>123.7821076866236</v>
+      </c>
+      <c r="I18">
+        <v>0.32815706840813791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>5944.65283203125</v>
+      </c>
+      <c r="F19">
+        <v>61.67474365234375</v>
+      </c>
+      <c r="G19">
+        <v>4.8310559259388902E-2</v>
+      </c>
+      <c r="H19">
+        <v>77.050157484802341</v>
+      </c>
+      <c r="I19">
+        <v>0.53825055924991683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>12676.66015625</v>
+      </c>
+      <c r="F20">
+        <v>97.859191894531236</v>
+      </c>
+      <c r="G20">
+        <v>0.18984900650585881</v>
+      </c>
+      <c r="H20">
+        <v>112.34422095402689</v>
+      </c>
+      <c r="I20">
+        <v>-9.9388674356003001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>5086.3681640625</v>
+      </c>
+      <c r="F21">
+        <v>56.780910491943359</v>
+      </c>
+      <c r="G21">
+        <v>7.0069851072863606E-2</v>
+      </c>
+      <c r="H21">
+        <v>70.845613868989318</v>
+      </c>
+      <c r="I21">
+        <v>-0.24961026916674051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>63</v>
+      </c>
+      <c r="E22">
+        <v>145811.875</v>
+      </c>
+      <c r="F22">
+        <v>349.72607421875</v>
+      </c>
+      <c r="G22">
+        <v>0.28313423546277849</v>
+      </c>
+      <c r="H22">
+        <v>381.83159769129628</v>
+      </c>
+      <c r="I22">
+        <v>-6.5927785392312099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>17073.0859375</v>
+      </c>
+      <c r="F23">
+        <v>103.1474533081055</v>
+      </c>
+      <c r="G23">
+        <v>7.8116504658210503E-2</v>
+      </c>
+      <c r="H23">
+        <v>130.5789027503765</v>
+      </c>
+      <c r="I23">
+        <v>0.25052684347238668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>6155.15087890625</v>
+      </c>
+      <c r="F24">
+        <v>62.028812408447273</v>
+      </c>
+      <c r="G24">
+        <v>4.9277557669185901E-2</v>
+      </c>
+      <c r="H24">
+        <v>78.059970073372128</v>
+      </c>
+      <c r="I24">
+        <v>0.51881240810664453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>5578.24267578125</v>
+      </c>
+      <c r="F25">
+        <v>61.073146820068359</v>
+      </c>
+      <c r="G25">
+        <v>0.1173478903803713</v>
+      </c>
+      <c r="H25">
+        <v>73.689952745570764</v>
+      </c>
+      <c r="I25">
+        <v>0.50381619089779883</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>3810.57763671875</v>
+      </c>
+      <c r="F26">
+        <v>48.665904998779297</v>
+      </c>
+      <c r="G26">
+        <v>6.1021920728488999E-2</v>
+      </c>
+      <c r="H26">
+        <v>59.695162395334599</v>
+      </c>
+      <c r="I26">
+        <v>3.91480529222284E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>126805.53125</v>
+      </c>
+      <c r="F27">
+        <v>301.89151000976563</v>
+      </c>
+      <c r="G27">
+        <v>0.239630958882038</v>
+      </c>
+      <c r="H27">
+        <v>356.06327769350298</v>
+      </c>
+      <c r="I27">
+        <v>-5.5967873874804477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>16161.5673828125</v>
+      </c>
+      <c r="F28">
+        <v>98.499328613281236</v>
+      </c>
+      <c r="G28">
+        <v>7.5160480566829793E-2</v>
+      </c>
+      <c r="H28">
+        <v>127.0291973265834</v>
+      </c>
+      <c r="I28">
+        <v>0.2903386673038757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>5930.94287109375</v>
+      </c>
+      <c r="F29">
+        <v>60.965488433837891</v>
+      </c>
+      <c r="G29">
+        <v>4.83779530504772E-2</v>
+      </c>
+      <c r="H29">
+        <v>76.524989003164208</v>
+      </c>
+      <c r="I29">
+        <v>0.53612206149637787</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>3662.671142578125</v>
+      </c>
+      <c r="F30">
+        <v>46.640106201171882</v>
+      </c>
+      <c r="G30">
+        <v>8.6401452443615204E-2</v>
+      </c>
+      <c r="H30">
+        <v>58.707279553218072</v>
+      </c>
+      <c r="I30">
+        <v>0.67147430776307226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>3881.987548828125</v>
+      </c>
+      <c r="F31">
+        <v>49.0491943359375</v>
+      </c>
+      <c r="G31">
+        <v>6.1310455891372899E-2</v>
+      </c>
+      <c r="H31">
+        <v>59.970753722538738</v>
+      </c>
+      <c r="I31">
+        <v>1.93549338828089E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>98</v>
+      </c>
+      <c r="E32">
+        <v>99938.2890625</v>
+      </c>
+      <c r="F32">
+        <v>283.709228515625</v>
+      </c>
+      <c r="G32">
+        <v>0.2281653764598382</v>
+      </c>
+      <c r="H32">
+        <v>316.09190217969189</v>
+      </c>
+      <c r="I32">
+        <v>-4.1977243736085121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <v>14842.9814453125</v>
+      </c>
+      <c r="F33">
+        <v>94.2540283203125</v>
+      </c>
+      <c r="G33">
+        <v>7.196812853581E-2</v>
+      </c>
+      <c r="H33">
+        <v>121.64752979789979</v>
+      </c>
+      <c r="I33">
+        <v>0.34766283608098281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>8450.876953125</v>
+      </c>
+      <c r="F34">
+        <v>73.456298828125</v>
+      </c>
+      <c r="G34">
+        <v>5.7335216180655901E-2</v>
+      </c>
+      <c r="H34">
+        <v>91.8238627577187</v>
+      </c>
+      <c r="I34">
+        <v>0.3442104466287203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>5301.82568359375</v>
+      </c>
+      <c r="F35">
+        <v>60.106853485107422</v>
+      </c>
+      <c r="G35">
+        <v>0.11514462985297599</v>
+      </c>
+      <c r="H35">
+        <v>71.723513607773725</v>
+      </c>
+      <c r="I35">
+        <v>0.52864876631117874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>3787.716796875</v>
+      </c>
+      <c r="F36">
+        <v>48.383140563964851</v>
+      </c>
+      <c r="G36">
+        <v>6.0852685331156398E-2</v>
+      </c>
+      <c r="H36">
+        <v>59.372268931230728</v>
+      </c>
+      <c r="I36">
+        <v>4.4175809212944901E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>101737.1875</v>
+      </c>
+      <c r="F37">
+        <v>286.64959716796881</v>
+      </c>
+      <c r="G37">
+        <v>0.23061836579457529</v>
+      </c>
+      <c r="H37">
+        <v>318.92275471959118</v>
+      </c>
+      <c r="I37">
+        <v>-4.2904797814183384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>96</v>
+      </c>
+      <c r="E38">
+        <v>14081.0458984375</v>
+      </c>
+      <c r="F38">
+        <v>88.961326599121094</v>
+      </c>
+      <c r="G38">
+        <v>6.8557828423311803E-2</v>
+      </c>
+      <c r="H38">
+        <v>118.4215588371006</v>
+      </c>
+      <c r="I38">
+        <v>0.38079660090492079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>6195.73388671875</v>
+      </c>
+      <c r="F39">
+        <v>61.170211791992188</v>
+      </c>
+      <c r="G39">
+        <v>4.7444964361445498E-2</v>
+      </c>
+      <c r="H39">
+        <v>78.600289982850711</v>
+      </c>
+      <c r="I39">
+        <v>0.52034126427742811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>14660.400390625</v>
+      </c>
+      <c r="F40">
+        <v>99.0501708984375</v>
+      </c>
+      <c r="G40">
+        <v>0.17270347672196179</v>
+      </c>
+      <c r="H40">
+        <v>119.8331323175881</v>
+      </c>
+      <c r="I40">
+        <v>-0.28035083205151318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>4034.126708984375</v>
+      </c>
+      <c r="F41">
+        <v>50.717117309570313</v>
+      </c>
+      <c r="G41">
+        <v>6.2931947960512394E-2</v>
+      </c>
+      <c r="H41">
+        <v>61.921575810893799</v>
+      </c>
+      <c r="I41">
+        <v>-1.49646058347804E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>99651.84375</v>
+      </c>
+      <c r="F42">
+        <v>280.58895874023438</v>
+      </c>
+      <c r="G42">
+        <v>0.22508603168229999</v>
+      </c>
+      <c r="H42">
+        <v>315.65045634409569</v>
+      </c>
+      <c r="I42">
+        <v>-4.1852272818508469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>19832.294921875</v>
+      </c>
+      <c r="F43">
+        <v>110.94541168212891</v>
+      </c>
+      <c r="G43">
+        <v>8.4792063888022795E-2</v>
+      </c>
+      <c r="H43">
+        <v>140.82590925287101</v>
+      </c>
+      <c r="I43">
+        <v>0.1311694475832412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>5814.5849609375</v>
+      </c>
+      <c r="F44">
+        <v>60.254482269287109</v>
+      </c>
+      <c r="G44">
+        <v>4.7445203793625303E-2</v>
+      </c>
+      <c r="H44">
+        <v>75.925088803817331</v>
+      </c>
+      <c r="I44">
+        <v>0.54671242826786326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>3885.676513671875</v>
+      </c>
+      <c r="F45">
+        <v>48.203029632568359</v>
+      </c>
+      <c r="G45">
+        <v>9.0345752003456806E-2</v>
+      </c>
+      <c r="H45">
+        <v>60.528509693213842</v>
+      </c>
+      <c r="I45">
+        <v>0.65162093895816064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
+      </c>
+      <c r="E46">
+        <v>3580.9697265625</v>
+      </c>
+      <c r="F46">
+        <v>46.670093536376953</v>
+      </c>
+      <c r="G46">
+        <v>5.8065379633885902E-2</v>
+      </c>
+      <c r="H46">
+        <v>57.58484020639041</v>
+      </c>
+      <c r="I46">
+        <v>9.5756933070582806E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>860998</v>
+      </c>
+      <c r="F47">
+        <v>856.58697509765625</v>
+      </c>
+      <c r="G47">
+        <v>0.70043643228414565</v>
+      </c>
+      <c r="H47">
+        <v>927.81111394748518</v>
+      </c>
+      <c r="I47">
+        <v>-43.802995682543283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>14942.2021484375</v>
+      </c>
+      <c r="F48">
+        <v>88.52294921875</v>
+      </c>
+      <c r="G48">
+        <v>6.9291646544156899E-2</v>
+      </c>
+      <c r="H48">
+        <v>121.7348492356434</v>
+      </c>
+      <c r="I48">
+        <v>0.3417786610980082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
+      </c>
+      <c r="E49">
+        <v>6613.0380859375</v>
+      </c>
+      <c r="F49">
+        <v>63.179969787597663</v>
+      </c>
+      <c r="G49">
+        <v>4.8861250095947599E-2</v>
+      </c>
+      <c r="H49">
+        <v>81.224031581590495</v>
+      </c>
+      <c r="I49">
+        <v>0.48787808620834477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>13624.39453125</v>
+      </c>
+      <c r="F50">
+        <v>97.347946166992202</v>
+      </c>
+      <c r="G50">
+        <v>0.17198830292002501</v>
+      </c>
+      <c r="H50">
+        <v>116.2449096508858</v>
+      </c>
+      <c r="I50">
+        <v>-0.17684440462604789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>5213.78662109375</v>
+      </c>
+      <c r="F51">
+        <v>59.541847229003913</v>
+      </c>
+      <c r="G51">
+        <v>7.6342086440988902E-2</v>
+      </c>
+      <c r="H51">
+        <v>71.716906637771274</v>
+      </c>
+      <c r="I51">
+        <v>-0.28197269630504701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>286015.65625</v>
+      </c>
+      <c r="F52">
+        <v>430.29898071289063</v>
+      </c>
+      <c r="G52">
+        <v>0.3387821375173935</v>
+      </c>
+      <c r="H52">
+        <v>534.75917017103791</v>
+      </c>
+      <c r="I52">
+        <v>-13.88272820552835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>82</v>
+      </c>
+      <c r="E53">
+        <v>15606.2568359375</v>
+      </c>
+      <c r="F53">
+        <v>95.861885070800781</v>
+      </c>
+      <c r="G53">
+        <v>7.3150210288961404E-2</v>
+      </c>
+      <c r="H53">
+        <v>124.7924130582049</v>
+      </c>
+      <c r="I53">
+        <v>0.31445890063495358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>5785.1083984375</v>
+      </c>
+      <c r="F54">
+        <v>60.785198211669922</v>
+      </c>
+      <c r="G54">
+        <v>4.7618642667632501E-2</v>
+      </c>
+      <c r="H54">
+        <v>75.909320721626216</v>
+      </c>
+      <c r="I54">
+        <v>0.5501201952160053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>17394.654296875</v>
+      </c>
+      <c r="F55">
+        <v>111.4859924316406</v>
+      </c>
+      <c r="G55">
+        <v>0.23165199730989289</v>
+      </c>
+      <c r="H55">
+        <v>130.6529011284201</v>
+      </c>
+      <c r="I55">
+        <v>-0.50872360951054452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>22</v>
+      </c>
+      <c r="E56">
+        <v>4324.62451171875</v>
+      </c>
+      <c r="F56">
+        <v>52.194000244140632</v>
+      </c>
+      <c r="G56">
+        <v>6.41428020361266E-2</v>
+      </c>
+      <c r="H56">
+        <v>64.510497924873249</v>
+      </c>
+      <c r="I56">
+        <v>-8.5078472012743295E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>37</v>
+      </c>
+      <c r="E57">
+        <v>242942.328125</v>
+      </c>
+      <c r="F57">
+        <v>472.45236206054688</v>
+      </c>
+      <c r="G57">
+        <v>0.38807803090741277</v>
+      </c>
+      <c r="H57">
+        <v>492.72057959787702</v>
+      </c>
+      <c r="I57">
+        <v>-11.64158999727111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>88</v>
+      </c>
+      <c r="E58">
+        <v>17381.025390625</v>
+      </c>
+      <c r="F58">
+        <v>101.8374862670898</v>
+      </c>
+      <c r="G58">
+        <v>7.9100667567673602E-2</v>
+      </c>
+      <c r="H58">
+        <v>131.67907740856751</v>
+      </c>
+      <c r="I58">
+        <v>0.2363277126681107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59">
+        <v>5908.5068359375</v>
+      </c>
+      <c r="F59">
+        <v>60.818603515625</v>
+      </c>
+      <c r="G59">
+        <v>4.8159800012813198E-2</v>
+      </c>
+      <c r="H59">
+        <v>76.39027557156173</v>
+      </c>
+      <c r="I59">
+        <v>0.53820292567667172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>13013.552734375</v>
+      </c>
+      <c r="F60">
+        <v>96.930000305175781</v>
+      </c>
+      <c r="G60">
+        <v>0.1749899254374572</v>
+      </c>
+      <c r="H60">
+        <v>113.72168868934359</v>
+      </c>
+      <c r="I60">
+        <v>-0.12825953525392539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>23</v>
+      </c>
+      <c r="E61">
+        <v>3756.8994140625</v>
+      </c>
+      <c r="F61">
+        <v>47.672214508056641</v>
+      </c>
+      <c r="G61">
+        <v>5.9518373261542197E-2</v>
+      </c>
+      <c r="H61">
+        <v>58.820608007402399</v>
+      </c>
+      <c r="I61">
+        <v>5.0547460352981501E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>46</v>
+      </c>
+      <c r="E62">
+        <v>189087.875</v>
+      </c>
+      <c r="F62">
+        <v>408.78829956054688</v>
+      </c>
+      <c r="G62">
+        <v>0.3334336327278109</v>
+      </c>
+      <c r="H62">
+        <v>434.76387345843932</v>
+      </c>
+      <c r="I62">
+        <v>-8.8399172132397155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>122442.484375</v>
+      </c>
+      <c r="F63">
+        <v>312.1055908203125</v>
+      </c>
+      <c r="G63">
+        <v>0.2177334197690653</v>
+      </c>
+      <c r="H63">
+        <v>349.67859380185121</v>
+      </c>
+      <c r="I63">
+        <v>-4.3535555085287756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>42</v>
+      </c>
+      <c r="E64">
+        <v>6666.89404296875</v>
+      </c>
+      <c r="F64">
+        <v>65.397674560546875</v>
+      </c>
+      <c r="G64">
+        <v>5.1670767520209403E-2</v>
+      </c>
+      <c r="H64">
+        <v>81.306043171974338</v>
+      </c>
+      <c r="I64">
+        <v>0.47940175401709828</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
+        <v>12499.458984375</v>
+      </c>
+      <c r="F65">
+        <v>96.389457702636719</v>
+      </c>
+      <c r="G65">
+        <v>0.1839544909482459</v>
+      </c>
+      <c r="H65">
+        <v>111.20635233284381</v>
+      </c>
+      <c r="I65">
+        <v>-7.8688141928937694E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>5733.232421875</v>
+      </c>
+      <c r="F66">
+        <v>60.571426391601563</v>
+      </c>
+      <c r="G66">
+        <v>7.4002064161351494E-2</v>
+      </c>
+      <c r="H66">
+        <v>74.252113206210325</v>
+      </c>
+      <c r="I66">
+        <v>-0.4373287675889842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>246869.28125</v>
+      </c>
+      <c r="F67">
+        <v>475.22933959960938</v>
+      </c>
+      <c r="G67">
+        <v>0.39006517490815062</v>
+      </c>
+      <c r="H67">
+        <v>496.66743995436798</v>
+      </c>
+      <c r="I67">
+        <v>-11.8437429941447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>99</v>
+      </c>
+      <c r="E68">
+        <v>16177.7177734375</v>
+      </c>
+      <c r="F68">
+        <v>95.255294799804673</v>
+      </c>
+      <c r="G68">
+        <v>7.38165296586617E-2</v>
+      </c>
+      <c r="H68">
+        <v>127.00445214741509</v>
+      </c>
+      <c r="I68">
+        <v>0.2890100068314248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>6586.63525390625</v>
+      </c>
+      <c r="F69">
+        <v>65.308143615722656</v>
+      </c>
+      <c r="G69">
+        <v>5.1890087995002103E-2</v>
+      </c>
+      <c r="H69">
+        <v>80.907740241116201</v>
+      </c>
+      <c r="I69">
+        <v>0.48592379622180831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>13094.3212890625</v>
+      </c>
+      <c r="F70">
+        <v>96.898963928222656</v>
+      </c>
+      <c r="G70">
+        <v>0.1736225800134033</v>
+      </c>
+      <c r="H70">
+        <v>114.06967186277279</v>
+      </c>
+      <c r="I70">
+        <v>-0.1358939973369005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>4712.1240234375</v>
+      </c>
+      <c r="F71">
+        <v>56.141639709472663</v>
+      </c>
+      <c r="G71">
+        <v>7.1728035873255103E-2</v>
+      </c>
+      <c r="H71">
+        <v>68.43733319408274</v>
+      </c>
+      <c r="I71">
+        <v>-0.1582512732001054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72">
+        <v>102645.9609375</v>
+      </c>
+      <c r="F72">
+        <v>288.4423828125</v>
+      </c>
+      <c r="G72">
+        <v>0.23217838188976681</v>
+      </c>
+      <c r="H72">
+        <v>320.35702588595439</v>
+      </c>
+      <c r="I72">
+        <v>-4.34089710971221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <v>15250.1953125</v>
+      </c>
+      <c r="F73">
+        <v>92.275222778320327</v>
+      </c>
+      <c r="G73">
+        <v>7.1377732606245303E-2</v>
+      </c>
+      <c r="H73">
+        <v>123.21468209423961</v>
+      </c>
+      <c r="I73">
+        <v>0.32927386473681169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>39</v>
+      </c>
+      <c r="E74">
+        <v>6255.650390625</v>
+      </c>
+      <c r="F74">
+        <v>63.229824066162109</v>
+      </c>
+      <c r="G74">
+        <v>5.0022689733647097E-2</v>
+      </c>
+      <c r="H74">
+        <v>78.706803711798003</v>
+      </c>
+      <c r="I74">
+        <v>0.51146650669534965</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>13693.6171875</v>
+      </c>
+      <c r="F75">
+        <v>100.48911285400391</v>
+      </c>
+      <c r="G75">
+        <v>0.20087494472617201</v>
+      </c>
+      <c r="H75">
+        <v>116.4645704626125</v>
+      </c>
+      <c r="I75">
+        <v>-0.19073982864684111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>4899.40673828125</v>
+      </c>
+      <c r="F76">
+        <v>55.988296508789063</v>
+      </c>
+      <c r="G76">
+        <v>6.9313170620219994E-2</v>
+      </c>
+      <c r="H76">
+        <v>69.616189498815061</v>
+      </c>
+      <c r="I76">
+        <v>-0.2026226108419599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77">
+        <v>94855.2265625</v>
+      </c>
+      <c r="F77">
+        <v>269.11614990234369</v>
+      </c>
+      <c r="G77">
+        <v>0.21494662410916829</v>
+      </c>
+      <c r="H77">
+        <v>307.94854908572319</v>
+      </c>
+      <c r="I77">
+        <v>-3.932846520976216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>15114.03515625</v>
+      </c>
+      <c r="F78">
+        <v>86.73321533203125</v>
+      </c>
+      <c r="G78">
+        <v>6.8521820379021894E-2</v>
+      </c>
+      <c r="H78">
+        <v>122.4659273157602</v>
+      </c>
+      <c r="I78">
+        <v>0.33436838476324021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>24</v>
+      </c>
+      <c r="E79">
+        <v>5258.9482421875</v>
+      </c>
+      <c r="F79">
+        <v>58.374568939208977</v>
+      </c>
+      <c r="G79">
+        <v>4.5419564229371497E-2</v>
+      </c>
+      <c r="H79">
+        <v>72.452004054158863</v>
+      </c>
+      <c r="I79">
+        <v>0.59178067242442334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>22025.16015625</v>
+      </c>
+      <c r="F80">
+        <v>115.9862976074219</v>
+      </c>
+      <c r="G80">
+        <v>0.19039283420313599</v>
+      </c>
+      <c r="H80">
+        <v>146.85406826442869</v>
+      </c>
+      <c r="I80">
+        <v>-0.90123335941684357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>4625.2666015625</v>
+      </c>
+      <c r="F81">
+        <v>54.161415100097663</v>
+      </c>
+      <c r="G81">
+        <v>6.6039749115833504E-2</v>
+      </c>
+      <c r="H81">
+        <v>67.100527405285291</v>
+      </c>
+      <c r="I81">
+        <v>-0.15786137417398449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>95</v>
+      </c>
+      <c r="E82">
+        <v>83884.5703125</v>
+      </c>
+      <c r="F82">
+        <v>253.9118957519531</v>
+      </c>
+      <c r="G82">
+        <v>0.20292627016752851</v>
+      </c>
+      <c r="H82">
+        <v>289.59169750227022</v>
+      </c>
+      <c r="I82">
+        <v>-3.3618443413083892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>55</v>
+      </c>
+      <c r="E83">
+        <v>14545.1640625</v>
+      </c>
+      <c r="F83">
+        <v>86.636985778808594</v>
+      </c>
+      <c r="G83">
+        <v>6.7638689241482003E-2</v>
+      </c>
+      <c r="H83">
+        <v>120.10788694611161</v>
+      </c>
+      <c r="I83">
+        <v>0.35936412907141829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>31</v>
+      </c>
+      <c r="E84">
+        <v>5615.50146484375</v>
+      </c>
+      <c r="F84">
+        <v>59.6956787109375</v>
+      </c>
+      <c r="G84">
+        <v>4.72461528089047E-2</v>
+      </c>
+      <c r="H84">
+        <v>74.564226243246367</v>
+      </c>
+      <c r="I84">
+        <v>0.56119983547193475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>14989.421875</v>
+      </c>
+      <c r="F85">
+        <v>99.477317810058594</v>
+      </c>
+      <c r="G85">
+        <v>0.17065535566270451</v>
+      </c>
+      <c r="H85">
+        <v>121.9227613585572</v>
+      </c>
+      <c r="I85">
+        <v>-0.29856857734543057</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>5256.7919921875</v>
+      </c>
+      <c r="F86">
+        <v>58.059108734130859</v>
+      </c>
+      <c r="G86">
+        <v>7.0858077952611107E-2</v>
+      </c>
+      <c r="H86">
+        <v>71.389396901797255</v>
+      </c>
+      <c r="I86">
+        <v>-0.31775517251478108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>82</v>
+      </c>
+      <c r="E87">
+        <v>126775.1640625</v>
+      </c>
+      <c r="F87">
+        <v>297.38247680664063</v>
+      </c>
+      <c r="G87">
+        <v>0.23525333615962049</v>
+      </c>
+      <c r="H87">
+        <v>356.01663456365583</v>
+      </c>
+      <c r="I87">
+        <v>-5.5938820605273483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>66</v>
+      </c>
+      <c r="E88">
+        <v>14797.6767578125</v>
+      </c>
+      <c r="F88">
+        <v>87.418304443359375</v>
+      </c>
+      <c r="G88">
+        <v>6.9245179368342194E-2</v>
+      </c>
+      <c r="H88">
+        <v>120.9688835745407</v>
+      </c>
+      <c r="I88">
+        <v>0.34766366642165453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>5998.2060546875</v>
+      </c>
+      <c r="F89">
+        <v>61.725322723388672</v>
+      </c>
+      <c r="G89">
+        <v>4.8989166825965401E-2</v>
+      </c>
+      <c r="H89">
+        <v>76.83993624481009</v>
+      </c>
+      <c r="I89">
+        <v>0.53076730308822218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>17038.2109375</v>
+      </c>
+      <c r="F90">
+        <v>104.4056930541992</v>
+      </c>
+      <c r="G90">
+        <v>0.1768186098866445</v>
+      </c>
+      <c r="H90">
+        <v>129.47087028298321</v>
+      </c>
+      <c r="I90">
+        <v>-0.4783285481971612</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>3553.909423828125</v>
+      </c>
+      <c r="F91">
+        <v>46.766437530517578</v>
+      </c>
+      <c r="G91">
+        <v>5.7679035054803499E-2</v>
+      </c>
+      <c r="H91">
+        <v>57.759678567950239</v>
+      </c>
+      <c r="I91">
+        <v>0.1037322446111537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>35</v>
+      </c>
+      <c r="E92">
+        <v>198984.03125</v>
+      </c>
+      <c r="F92">
+        <v>423.771728515625</v>
+      </c>
+      <c r="G92">
+        <v>0.34688225632094932</v>
+      </c>
+      <c r="H92">
+        <v>446.04589943006658</v>
+      </c>
+      <c r="I92">
+        <v>-9.3571455980567766</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>14502.837890625</v>
+      </c>
+      <c r="F93">
+        <v>96.1861572265625</v>
+      </c>
+      <c r="G93">
+        <v>7.2344949937276207E-2</v>
+      </c>
+      <c r="H93">
+        <v>120.3599367140182</v>
+      </c>
+      <c r="I93">
+        <v>0.36346284019987229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>26</v>
+      </c>
+      <c r="E94">
+        <v>5834.10009765625</v>
+      </c>
+      <c r="F94">
+        <v>60.865989685058587</v>
+      </c>
+      <c r="G94">
+        <v>4.7558506323384299E-2</v>
+      </c>
+      <c r="H94">
+        <v>76.043972129672269</v>
+      </c>
+      <c r="I94">
+        <v>0.54487457519360127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>15260.4951171875</v>
+      </c>
+      <c r="F95">
+        <v>101.0828857421875</v>
+      </c>
+      <c r="G95">
+        <v>0.1761882148562223</v>
+      </c>
+      <c r="H95">
+        <v>122.95047241468281</v>
+      </c>
+      <c r="I95">
+        <v>-0.33464809037303528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>4137.982421875</v>
+      </c>
+      <c r="F96">
+        <v>50.533279418945313</v>
+      </c>
+      <c r="G96">
+        <v>6.2157833954614099E-2</v>
+      </c>
+      <c r="H96">
+        <v>62.684308844421963</v>
+      </c>
+      <c r="I96">
+        <v>-4.12368439564961E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>76</v>
+      </c>
+      <c r="E97">
+        <v>87584.3984375</v>
+      </c>
+      <c r="F97">
+        <v>261.240478515625</v>
+      </c>
+      <c r="G97">
+        <v>0.2091627445222238</v>
+      </c>
+      <c r="H97">
+        <v>295.91933754427629</v>
+      </c>
+      <c r="I97">
+        <v>-3.5567327596749059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>14005.4111328125</v>
+      </c>
+      <c r="F98">
+        <v>93.276069641113281</v>
+      </c>
+      <c r="G98">
+        <v>7.08072926185917E-2</v>
+      </c>
+      <c r="H98">
+        <v>118.14882668089849</v>
+      </c>
+      <c r="I98">
+        <v>0.38437594695763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>25</v>
+      </c>
+      <c r="E99">
+        <v>5962.66259765625</v>
+      </c>
+      <c r="F99">
+        <v>61.062347412109382</v>
+      </c>
+      <c r="G99">
+        <v>4.84785873283885E-2</v>
+      </c>
+      <c r="H99">
+        <v>76.81058715127493</v>
+      </c>
+      <c r="I99">
+        <v>0.53430006373331784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>13170.267578125</v>
+      </c>
+      <c r="F100">
+        <v>98.637374877929673</v>
+      </c>
+      <c r="G100">
+        <v>0.1866340672176145</v>
+      </c>
+      <c r="H100">
+        <v>114.5081172641582</v>
+      </c>
+      <c r="I100">
+        <v>-0.1433951054206874</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>3643.86181640625</v>
+      </c>
+      <c r="F101">
+        <v>47.464714050292969</v>
+      </c>
+      <c r="G101">
+        <v>5.8426267906618798E-2</v>
+      </c>
+      <c r="H101">
+        <v>58.817481162076703</v>
+      </c>
+      <c r="I101">
+        <v>8.2900410416205397E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>81</v>
+      </c>
+      <c r="E102">
+        <v>84122.4375</v>
+      </c>
+      <c r="F102">
+        <v>254.61549377441409</v>
+      </c>
+      <c r="G102">
+        <v>0.20356080865471601</v>
+      </c>
+      <c r="H102">
+        <v>290.00887062100497</v>
+      </c>
+      <c r="I102">
+        <v>-3.3757009306143759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>46</v>
+      </c>
+      <c r="E103">
+        <v>13650.4384765625</v>
+      </c>
+      <c r="F103">
+        <v>94.981025695800781</v>
+      </c>
+      <c r="G103">
+        <v>7.0691385815459001E-2</v>
+      </c>
+      <c r="H103">
+        <v>116.6208943770351</v>
+      </c>
+      <c r="I103">
+        <v>0.40001919710217188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>30</v>
+      </c>
+      <c r="E104">
+        <v>5499.17724609375</v>
+      </c>
+      <c r="F104">
+        <v>58.467662811279297</v>
+      </c>
+      <c r="G104">
+        <v>4.5926720981189301E-2</v>
+      </c>
+      <c r="H104">
+        <v>73.680814286420897</v>
+      </c>
+      <c r="I104">
+        <v>0.57074951509911631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>13659.052734375</v>
+      </c>
+      <c r="F105">
+        <v>97.974426269531236</v>
+      </c>
+      <c r="G105">
+        <v>0.17579670418647581</v>
+      </c>
+      <c r="H105">
+        <v>116.32157886056051</v>
+      </c>
+      <c r="I105">
+        <v>-0.1810768382163003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <v>3870.295654296875</v>
+      </c>
+      <c r="F106">
+        <v>48.7203369140625</v>
+      </c>
+      <c r="G106">
+        <v>6.03767831784821E-2</v>
+      </c>
+      <c r="H106">
+        <v>59.89344509679848</v>
+      </c>
+      <c r="I106">
+        <v>2.2203938069210401E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>83486.5234375</v>
+      </c>
+      <c r="F107">
+        <v>253.3350830078125</v>
+      </c>
+      <c r="G107">
+        <v>0.202468893816073</v>
+      </c>
+      <c r="H107">
+        <v>288.90332161701559</v>
+      </c>
+      <c r="I107">
+        <v>-3.341180245131981</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>42</v>
+      </c>
+      <c r="E108">
+        <v>11944.0625</v>
+      </c>
+      <c r="F108">
+        <v>84.91729736328125</v>
+      </c>
+      <c r="G108">
+        <v>6.4614227455340706E-2</v>
+      </c>
+      <c r="H108">
+        <v>108.57994975118319</v>
+      </c>
+      <c r="I108">
+        <v>0.4732849059559307</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>5898.130859375</v>
+      </c>
+      <c r="F109">
+        <v>61.452175140380859</v>
+      </c>
+      <c r="G109">
+        <v>4.8642120350403897E-2</v>
+      </c>
+      <c r="H109">
+        <v>76.088268841104863</v>
+      </c>
+      <c r="I109">
+        <v>0.53819114322003481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>15780.0302734375</v>
+      </c>
+      <c r="F110">
+        <v>101.9337844848633</v>
+      </c>
+      <c r="G110">
+        <v>0.17519340208734879</v>
+      </c>
+      <c r="H110">
+        <v>124.5897262161742</v>
+      </c>
+      <c r="I110">
+        <v>-0.37217724063487528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>3880.313720703125</v>
+      </c>
+      <c r="F111">
+        <v>49.427356719970703</v>
+      </c>
+      <c r="G111">
+        <v>6.0304479292889297E-2</v>
+      </c>
+      <c r="H111">
+        <v>61.556375144123898</v>
+      </c>
+      <c r="I111">
+        <v>2.94032466862107E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>86335.515625</v>
+      </c>
+      <c r="F112">
+        <v>258.84164428710938</v>
+      </c>
+      <c r="G112">
+        <v>0.207124134476768</v>
+      </c>
+      <c r="H112">
+        <v>293.79163318220378</v>
+      </c>
+      <c r="I112">
+        <v>-3.4891932730675479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>98</v>
+      </c>
+      <c r="E113">
+        <v>10755.283203125</v>
+      </c>
+      <c r="F113">
+        <v>78.986236572265625</v>
+      </c>
+      <c r="G113">
+        <v>6.07827990389374E-2</v>
+      </c>
+      <c r="H113">
+        <v>103.623372197892</v>
+      </c>
+      <c r="I113">
+        <v>0.5277998010135011</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+      <c r="E114">
+        <v>5072.26513671875</v>
+      </c>
+      <c r="F114">
+        <v>56.824470520019531</v>
+      </c>
+      <c r="G114">
+        <v>4.4593850654875401E-2</v>
+      </c>
+      <c r="H114">
+        <v>70.868192884852576</v>
+      </c>
+      <c r="I114">
+        <v>0.60418327879702949</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>13408.126953125</v>
+      </c>
+      <c r="F115">
+        <v>97.424629211425781</v>
+      </c>
+      <c r="G115">
+        <v>0.17489175284867101</v>
+      </c>
+      <c r="H115">
+        <v>115.4173983482105</v>
+      </c>
+      <c r="I115">
+        <v>-0.16014005816485211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>3597.878173828125</v>
+      </c>
+      <c r="F116">
+        <v>46.983749389648438</v>
+      </c>
+      <c r="G116">
+        <v>5.8716439067389103E-2</v>
+      </c>
+      <c r="H116">
+        <v>57.47907097286722</v>
+      </c>
+      <c r="I116">
+        <v>9.0290290177669097E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>75</v>
+      </c>
+      <c r="E117">
+        <v>86087.375</v>
+      </c>
+      <c r="F117">
+        <v>258.38507080078119</v>
+      </c>
+      <c r="G117">
+        <v>0.2067419652222347</v>
+      </c>
+      <c r="H117">
+        <v>293.3701801133937</v>
+      </c>
+      <c r="I117">
+        <v>-3.476617665500517</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>54</v>
+      </c>
+      <c r="E118">
+        <v>12432.373046875</v>
+      </c>
+      <c r="F118">
+        <v>86.713180541992188</v>
+      </c>
+      <c r="G118">
+        <v>6.6172389394700104E-2</v>
+      </c>
+      <c r="H118">
+        <v>110.75543294681979</v>
+      </c>
+      <c r="I118">
+        <v>0.45172847902220598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>35</v>
+      </c>
+      <c r="E119">
+        <v>5379.4560546875</v>
+      </c>
+      <c r="F119">
+        <v>58.459308624267578</v>
+      </c>
+      <c r="G119">
+        <v>4.5885935828515398E-2</v>
+      </c>
+      <c r="H119">
+        <v>72.960467567917036</v>
+      </c>
+      <c r="I119">
+        <v>0.57992800928333932</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>22145.5</v>
+      </c>
+      <c r="F120">
+        <v>117.17010498046881</v>
+      </c>
+      <c r="G120">
+        <v>0.19321346127504549</v>
+      </c>
+      <c r="H120">
+        <v>147.38523920559251</v>
+      </c>
+      <c r="I120">
+        <v>-0.92829641701870635</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>3923.290771484375</v>
+      </c>
+      <c r="F121">
+        <v>48.776420593261719</v>
+      </c>
+      <c r="G121">
+        <v>6.0066468747522903E-2</v>
+      </c>
+      <c r="H121">
+        <v>61.07516546282389</v>
+      </c>
+      <c r="I121">
+        <v>1.29943072035905E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>88</v>
+      </c>
+      <c r="E122">
+        <v>81892.3984375</v>
+      </c>
+      <c r="F122">
+        <v>250.30160522460929</v>
+      </c>
+      <c r="G122">
+        <v>0.1999212493018078</v>
+      </c>
+      <c r="H122">
+        <v>286.13362093641712</v>
+      </c>
+      <c r="I122">
+        <v>-3.258636591476427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>53</v>
+      </c>
+      <c r="E123">
+        <v>12219.423828125</v>
+      </c>
+      <c r="F123">
+        <v>83.313331604003906</v>
+      </c>
+      <c r="G123">
+        <v>6.4078924671584006E-2</v>
+      </c>
+      <c r="H123">
+        <v>109.3037719760901</v>
+      </c>
+      <c r="I123">
+        <v>0.45997018187398192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>27</v>
+      </c>
+      <c r="E124">
+        <v>5640.7236328125</v>
+      </c>
+      <c r="F124">
+        <v>59.289649963378913</v>
+      </c>
+      <c r="G124">
+        <v>4.6638446850450703E-2</v>
+      </c>
+      <c r="H124">
+        <v>74.557201455988093</v>
+      </c>
+      <c r="I124">
+        <v>0.55947208625930067</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>13306.2587890625</v>
+      </c>
+      <c r="F125">
+        <v>97.741561889648438</v>
+      </c>
+      <c r="G125">
+        <v>0.1781905519446404</v>
+      </c>
+      <c r="H125">
+        <v>114.9794556519423</v>
+      </c>
+      <c r="I125">
+        <v>-0.15399888355517311</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>3418.715087890625</v>
+      </c>
+      <c r="F126">
+        <v>45.816856384277337</v>
+      </c>
+      <c r="G126">
+        <v>5.7330108254436699E-2</v>
+      </c>
+      <c r="H126">
+        <v>55.926418133754687</v>
+      </c>
+      <c r="I126">
+        <v>0.134918927340584</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>77</v>
+      </c>
+      <c r="E127">
+        <v>86419.765625</v>
+      </c>
+      <c r="F127">
+        <v>259.0281982421875</v>
+      </c>
+      <c r="G127">
+        <v>0.2072879871066203</v>
+      </c>
+      <c r="H127">
+        <v>293.93920511286979</v>
+      </c>
+      <c r="I127">
+        <v>-3.4945069007615408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>76</v>
+      </c>
+      <c r="E128">
+        <v>12039.33984375</v>
+      </c>
+      <c r="F128">
+        <v>81.631889343261719</v>
+      </c>
+      <c r="G128">
+        <v>6.3050880469723E-2</v>
+      </c>
+      <c r="H128">
+        <v>108.284835852378</v>
+      </c>
+      <c r="I128">
+        <v>0.46755813297923648</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>24</v>
+      </c>
+      <c r="E129">
+        <v>5754.41552734375</v>
+      </c>
+      <c r="F129">
+        <v>58.572772979736328</v>
+      </c>
+      <c r="G129">
+        <v>4.5651224459263999E-2</v>
+      </c>
+      <c r="H129">
+        <v>75.728781974356011</v>
+      </c>
+      <c r="I129">
+        <v>0.55222899522024105</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>17045.255859375</v>
+      </c>
+      <c r="F130">
+        <v>113.22524261474609</v>
+      </c>
+      <c r="G130">
+        <v>0.2193433241423384</v>
+      </c>
+      <c r="H130">
+        <v>130.43943705273631</v>
+      </c>
+      <c r="I130">
+        <v>-0.49335192576084769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>3408.5751953125</v>
+      </c>
+      <c r="F131">
+        <v>45.569343566894531</v>
+      </c>
+      <c r="G131">
+        <v>5.6440289248932199E-2</v>
+      </c>
+      <c r="H131">
+        <v>56.230305850113687</v>
+      </c>
+      <c r="I131">
+        <v>0.13903992857455319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>78</v>
+      </c>
+      <c r="E132">
+        <v>86021.078125</v>
+      </c>
+      <c r="F132">
+        <v>258.28729248046881</v>
+      </c>
+      <c r="G132">
+        <v>0.20666593298909411</v>
+      </c>
+      <c r="H132">
+        <v>293.26102914298713</v>
+      </c>
+      <c r="I132">
+        <v>-3.4740697430325769</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>62</v>
+      </c>
+      <c r="E133">
+        <v>13050.40625</v>
+      </c>
+      <c r="F133">
+        <v>84.175811767578125</v>
+      </c>
+      <c r="G133">
+        <v>6.4876886403607198E-2</v>
+      </c>
+      <c r="H133">
+        <v>113.6613760415016</v>
+      </c>
+      <c r="I133">
+        <v>0.4249804476063348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>24</v>
+      </c>
+      <c r="E134">
+        <v>6181.93505859375</v>
+      </c>
+      <c r="F134">
+        <v>61.279953002929688</v>
+      </c>
+      <c r="G134">
+        <v>4.8184380711217299E-2</v>
+      </c>
+      <c r="H134">
+        <v>78.297699755711022</v>
+      </c>
+      <c r="I134">
+        <v>0.51827508303241532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>16790.962890625</v>
+      </c>
+      <c r="F135">
+        <v>103.91368103027339</v>
+      </c>
+      <c r="G135">
+        <v>0.17638227655627969</v>
+      </c>
+      <c r="H135">
+        <v>128.5246650072952</v>
+      </c>
+      <c r="I135">
+        <v>-0.46180607599719969</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>3274.45556640625</v>
+      </c>
+      <c r="F136">
+        <v>44.800010681152337</v>
+      </c>
+      <c r="G136">
+        <v>5.5746605463259297E-2</v>
+      </c>
+      <c r="H136">
+        <v>55.120989031012527</v>
+      </c>
+      <c r="I136">
+        <v>0.17320249978149629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>65</v>
+      </c>
+      <c r="E137">
+        <v>84357.09375</v>
+      </c>
+      <c r="F137">
+        <v>255.0281982421875</v>
+      </c>
+      <c r="G137">
+        <v>0.20390180852179349</v>
+      </c>
+      <c r="H137">
+        <v>290.41041002498611</v>
+      </c>
+      <c r="I137">
+        <v>-3.387475588761363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>48</v>
+      </c>
+      <c r="E138">
+        <v>13339.91796875</v>
+      </c>
+      <c r="F138">
+        <v>91.235466003417955</v>
+      </c>
+      <c r="G138">
+        <v>6.8774266486628502E-2</v>
+      </c>
+      <c r="H138">
+        <v>115.10238387677499</v>
+      </c>
+      <c r="I138">
+        <v>0.41282031444842648</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>26</v>
+      </c>
+      <c r="E139">
+        <v>6038.8310546875</v>
+      </c>
+      <c r="F139">
+        <v>62.239765167236328</v>
+      </c>
+      <c r="G139">
+        <v>4.92778310309573E-2</v>
+      </c>
+      <c r="H139">
+        <v>76.989226904031739</v>
+      </c>
+      <c r="I139">
+        <v>0.52724814188372493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>20920.89453125</v>
+      </c>
+      <c r="F140">
+        <v>114.0218200683594</v>
+      </c>
+      <c r="G140">
+        <v>0.18905563793648111</v>
+      </c>
+      <c r="H140">
+        <v>143.0665906247969</v>
+      </c>
+      <c r="I140">
+        <v>-0.82303417528745892</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>24</v>
+      </c>
+      <c r="E141">
+        <v>3904.5205078125</v>
+      </c>
+      <c r="F141">
+        <v>48.888397216796882</v>
+      </c>
+      <c r="G141">
+        <v>6.1061933052890802E-2</v>
+      </c>
+      <c r="H141">
+        <v>59.795823801117329</v>
+      </c>
+      <c r="I141">
+        <v>1.23193171070429E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>72</v>
+      </c>
+      <c r="E142">
+        <v>86619.546875</v>
+      </c>
+      <c r="F142">
+        <v>259.41522216796881</v>
+      </c>
+      <c r="G142">
+        <v>0.20761844894549869</v>
+      </c>
+      <c r="H142">
+        <v>294.28396956849662</v>
+      </c>
+      <c r="I142">
+        <v>-3.5061442631479842</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>53</v>
+      </c>
+      <c r="E143">
+        <v>12952.697265625</v>
+      </c>
+      <c r="F143">
+        <v>87.998031616210938</v>
+      </c>
+      <c r="G143">
+        <v>6.7113647948808905E-2</v>
+      </c>
+      <c r="H143">
+        <v>113.1866755990891</v>
+      </c>
+      <c r="I143">
+        <v>0.42910624715407991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>31</v>
+      </c>
+      <c r="E144">
+        <v>6177.14599609375</v>
+      </c>
+      <c r="F144">
+        <v>62.637042999267578</v>
+      </c>
+      <c r="G144">
+        <v>4.9704855162281902E-2</v>
+      </c>
+      <c r="H144">
+        <v>78.026027392255671</v>
+      </c>
+      <c r="I144">
+        <v>0.51679891159065494</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>19934</v>
+      </c>
+      <c r="F145">
+        <v>111.041374206543</v>
+      </c>
+      <c r="G145">
+        <v>0.18353367649961719</v>
+      </c>
+      <c r="H145">
+        <v>140.3151222629848</v>
+      </c>
+      <c r="I145">
+        <v>-0.74473928211679097</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146">
+        <v>4014.67431640625</v>
+      </c>
+      <c r="F146">
+        <v>49.764118194580078</v>
+      </c>
+      <c r="G146">
+        <v>6.2268625065810601E-2</v>
+      </c>
+      <c r="H146">
+        <v>60.982715221372089</v>
+      </c>
+      <c r="I146">
+        <v>-1.3822473508666101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -612,14 +4782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,69 +4812,1301 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2">
-        <v>58343.93681640625</v>
+        <v>35685.786425781247</v>
       </c>
       <c r="D2">
-        <v>159.9419357299805</v>
+        <v>124.9282783508301</v>
       </c>
       <c r="E2">
-        <v>0.1534937634009321</v>
+        <v>0.117779621779807</v>
       </c>
       <c r="F2">
-        <v>180.5303254511894</v>
+        <v>144.77111713119001</v>
       </c>
       <c r="G2">
-        <v>-2.383678225491971</v>
+        <v>-1.05609500876643</v>
       </c>
       <c r="H2">
-        <v>25.6</v>
+        <v>54.2</v>
       </c>
       <c r="I2">
-        <v>104703.0504498947</v>
+        <v>61783.370671099663</v>
       </c>
       <c r="J2">
-        <v>178.111804470717</v>
+        <v>127.3363887450797</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
+        <v>38</v>
+      </c>
+      <c r="M2">
+        <v>3810.57763671875</v>
+      </c>
+      <c r="N2">
+        <v>48.665904998779297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>28691.080859375001</v>
+      </c>
+      <c r="D3">
+        <v>116.5107437133789</v>
+      </c>
+      <c r="E3">
+        <v>0.1054918302594248</v>
+      </c>
+      <c r="F3">
+        <v>136.63383136809509</v>
+      </c>
+      <c r="G3">
+        <v>-0.65411309942204021</v>
+      </c>
+      <c r="H3">
+        <v>61.8</v>
+      </c>
+      <c r="I3">
+        <v>41579.600698963011</v>
+      </c>
+      <c r="J3">
+        <v>100.5247388764479</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <v>3725.675048828125</v>
+      </c>
+      <c r="N3">
+        <v>47.985088348388672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>26553.073974609379</v>
+      </c>
+      <c r="D4">
+        <v>109.33239517211911</v>
+      </c>
+      <c r="E4">
+        <v>0.1011468862002582</v>
+      </c>
+      <c r="F4">
+        <v>130.1029608600777</v>
+      </c>
+      <c r="G4">
+        <v>-0.55199350679419978</v>
+      </c>
+      <c r="H4">
+        <v>59.6</v>
+      </c>
+      <c r="I4">
+        <v>41413.199651671057</v>
+      </c>
+      <c r="J4">
+        <v>99.251470140089339</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>3580.9697265625</v>
+      </c>
+      <c r="N4">
+        <v>46.670093536376953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>57488.015917968747</v>
+      </c>
+      <c r="D5">
+        <v>157.76667633056641</v>
+      </c>
+      <c r="E5">
+        <v>0.1522244816896946</v>
+      </c>
+      <c r="F5">
+        <v>177.41732747995101</v>
+      </c>
+      <c r="G5">
+        <v>-2.2725908923256939</v>
+      </c>
+      <c r="H5">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="I5">
+        <v>105970.3376340838</v>
+      </c>
+      <c r="J5">
+        <v>178.37553233548681</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>4712.1240234375</v>
+      </c>
+      <c r="N5">
+        <v>56.141639709472663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>180278.28427734369</v>
+      </c>
+      <c r="D6">
+        <v>233.03593749999999</v>
+      </c>
+      <c r="E6">
+        <v>0.21338394365705279</v>
+      </c>
+      <c r="F6">
+        <v>263.74636221067522</v>
+      </c>
+      <c r="G6">
+        <v>-8.6864312072336052</v>
+      </c>
+      <c r="H6">
+        <v>33.4</v>
+      </c>
+      <c r="I6">
+        <v>380557.50763489428</v>
+      </c>
+      <c r="J6">
+        <v>348.94927295724301</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>5213.78662109375</v>
+      </c>
+      <c r="N6">
+        <v>59.541847229003913</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="M2">
-        <v>4511.3623046875</v>
-      </c>
-      <c r="N2">
-        <v>53.47970581054688</v>
+      <c r="C7">
+        <v>101898.90390624999</v>
+      </c>
+      <c r="D7">
+        <v>171.78965301513671</v>
+      </c>
+      <c r="E7">
+        <v>0.1520329520359589</v>
+      </c>
+      <c r="F7">
+        <v>206.21939025152861</v>
+      </c>
+      <c r="G7">
+        <v>-4.4783158596241517</v>
+      </c>
+      <c r="H7">
+        <v>45.6</v>
+      </c>
+      <c r="I7">
+        <v>208964.52565071109</v>
+      </c>
+      <c r="J7">
+        <v>229.04040940391019</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>3621.72314453125</v>
+      </c>
+      <c r="N7">
+        <v>46.998710632324219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>65825.260058593747</v>
+      </c>
+      <c r="D8">
+        <v>150.12521133422851</v>
+      </c>
+      <c r="E8">
+        <v>0.15106915796400139</v>
+      </c>
+      <c r="F8">
+        <v>186.12486060083251</v>
+      </c>
+      <c r="G8">
+        <v>-2.7223902382401359</v>
+      </c>
+      <c r="H8">
+        <v>46.2</v>
+      </c>
+      <c r="I8">
+        <v>123225.83984101791</v>
+      </c>
+      <c r="J8">
+        <v>158.51419409056979</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>4324.62451171875</v>
+      </c>
+      <c r="N8">
+        <v>52.194000244140632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>28548.966113281251</v>
+      </c>
+      <c r="D9">
+        <v>120.0849678039551</v>
+      </c>
+      <c r="E9">
+        <v>0.12475338391521031</v>
+      </c>
+      <c r="F9">
+        <v>141.67185433068391</v>
+      </c>
+      <c r="G9">
+        <v>-0.77870383555376999</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>41665.92409583761</v>
+      </c>
+      <c r="J9">
+        <v>95.971987161014098</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>4899.40673828125</v>
+      </c>
+      <c r="N9">
+        <v>55.988296508789063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>24858.289941406249</v>
+      </c>
+      <c r="D10">
+        <v>111.55619735717769</v>
+      </c>
+      <c r="E10">
+        <v>0.1118649091666462</v>
+      </c>
+      <c r="F10">
+        <v>135.51519379039649</v>
+      </c>
+      <c r="G10">
+        <v>-0.61152082532504948</v>
+      </c>
+      <c r="H10">
+        <v>39.6</v>
+      </c>
+      <c r="I10">
+        <v>33325.51772651184</v>
+      </c>
+      <c r="J10">
+        <v>81.522179785112399</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>5256.7919921875</v>
+      </c>
+      <c r="N10">
+        <v>58.059108734130859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>25993.59897460938</v>
+      </c>
+      <c r="D11">
+        <v>113.9008171081543</v>
+      </c>
+      <c r="E11">
+        <v>0.1144160440936037</v>
+      </c>
+      <c r="F11">
+        <v>137.1092970593094</v>
+      </c>
+      <c r="G11">
+        <v>-0.67205265740201747</v>
+      </c>
+      <c r="H11">
+        <v>35.6</v>
+      </c>
+      <c r="I11">
+        <v>34358.470658176673</v>
+      </c>
+      <c r="J11">
+        <v>85.059542784391624</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>3923.290771484375</v>
+      </c>
+      <c r="N11">
+        <v>48.776420593261719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>23833.81381835938</v>
+      </c>
+      <c r="D12">
+        <v>107.8121459960937</v>
+      </c>
+      <c r="E12">
+        <v>0.10922179521732819</v>
+      </c>
+      <c r="F12">
+        <v>128.23593351720521</v>
+      </c>
+      <c r="G12">
+        <v>-0.48541199224884007</v>
+      </c>
+      <c r="H12">
+        <v>49.2</v>
+      </c>
+      <c r="I12">
+        <v>35169.92478928178</v>
+      </c>
+      <c r="J12">
+        <v>86.672630912622665</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>3597.878173828125</v>
+      </c>
+      <c r="N12">
+        <v>46.983749389648438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>25712.251562500001</v>
+      </c>
+      <c r="D13">
+        <v>114.2827293395996</v>
+      </c>
+      <c r="E13">
+        <v>0.1144142954057502</v>
+      </c>
+      <c r="F13">
+        <v>137.07288704634141</v>
+      </c>
+      <c r="G13">
+        <v>-0.65162439812192552</v>
+      </c>
+      <c r="H13">
+        <v>33.4</v>
+      </c>
+      <c r="I13">
+        <v>33458.443867667847</v>
+      </c>
+      <c r="J13">
+        <v>82.652011819401253</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>3904.5205078125</v>
+      </c>
+      <c r="N13">
+        <v>48.888397216796882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>28375.727343750001</v>
+      </c>
+      <c r="D14">
+        <v>116.8743293762207</v>
+      </c>
+      <c r="E14">
+        <v>0.1170641184073062</v>
+      </c>
+      <c r="F14">
+        <v>143.36421522507129</v>
+      </c>
+      <c r="G14">
+        <v>-0.81315843947587607</v>
+      </c>
+      <c r="H14">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>37862.236665150143</v>
+      </c>
+      <c r="J14">
+        <v>88.659431057202809</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>4625.2666015625</v>
+      </c>
+      <c r="N14">
+        <v>54.161415100097663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>47743.889355468753</v>
+      </c>
+      <c r="D15">
+        <v>146.4880081176758</v>
+      </c>
+      <c r="E15">
+        <v>0.14102635227848931</v>
+      </c>
+      <c r="F15">
+        <v>165.61691790657241</v>
+      </c>
+      <c r="G15">
+        <v>-1.7649386233985671</v>
+      </c>
+      <c r="H15">
+        <v>24.6</v>
+      </c>
+      <c r="I15">
+        <v>84693.011044509214</v>
+      </c>
+      <c r="J15">
+        <v>156.5380168991349</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>4137.982421875</v>
+      </c>
+      <c r="N15">
+        <v>50.533279418945313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>24873.3203125</v>
+      </c>
+      <c r="D16">
+        <v>112.33619689941411</v>
+      </c>
+      <c r="E16">
+        <v>0.1147017919186875</v>
+      </c>
+      <c r="F16">
+        <v>132.84086996053699</v>
+      </c>
+      <c r="G16">
+        <v>-0.53971028879768812</v>
+      </c>
+      <c r="H16">
+        <v>37.6</v>
+      </c>
+      <c r="I16">
+        <v>35341.388965654347</v>
+      </c>
+      <c r="J16">
+        <v>85.966197118125109</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>34</v>
+      </c>
+      <c r="M16">
+        <v>3643.86181640625</v>
+      </c>
+      <c r="N16">
+        <v>47.464714050292969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>24933.470410156249</v>
+      </c>
+      <c r="D17">
+        <v>111.6054893493652</v>
+      </c>
+      <c r="E17">
+        <v>0.11835474108537559</v>
+      </c>
+      <c r="F17">
+        <v>132.92451316849071</v>
+      </c>
+      <c r="G17">
+        <v>-0.5658063539496716</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>34785.788374412128</v>
+      </c>
+      <c r="J17">
+        <v>86.324586518861537</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>3408.5751953125</v>
+      </c>
+      <c r="N17">
+        <v>45.569343566894531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>25939.612890625001</v>
+      </c>
+      <c r="D18">
+        <v>114.17115783691411</v>
+      </c>
+      <c r="E18">
+        <v>0.1140478507244035</v>
+      </c>
+      <c r="F18">
+        <v>137.35890200883961</v>
+      </c>
+      <c r="G18">
+        <v>-0.66376017200574133</v>
+      </c>
+      <c r="H18">
+        <v>34.4</v>
+      </c>
+      <c r="I18">
+        <v>34489.272901989847</v>
+      </c>
+      <c r="J18">
+        <v>84.549834495299663</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>4014.67431640625</v>
+      </c>
+      <c r="N18">
+        <v>49.764118194580078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>24197.81215820312</v>
+      </c>
+      <c r="D19">
+        <v>110.2131393432617</v>
+      </c>
+      <c r="E19">
+        <v>0.1102446246004111</v>
+      </c>
+      <c r="F19">
+        <v>131.94352831392041</v>
+      </c>
+      <c r="G19">
+        <v>-0.53449563798093602</v>
+      </c>
+      <c r="H19">
+        <v>30.6</v>
+      </c>
+      <c r="I19">
+        <v>33480.75490525012</v>
+      </c>
+      <c r="J19">
+        <v>82.560373509006865</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>3880.313720703125</v>
+      </c>
+      <c r="N19">
+        <v>49.427356719970703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>24160.280322265629</v>
+      </c>
+      <c r="D20">
+        <v>110.9517890930176</v>
+      </c>
+      <c r="E20">
+        <v>0.1112704805632645</v>
+      </c>
+      <c r="F20">
+        <v>131.30512064836401</v>
+      </c>
+      <c r="G20">
+        <v>-0.51276102371203547</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>33823.487016153464</v>
+      </c>
+      <c r="J20">
+        <v>83.201674298034433</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>3870.295654296875</v>
+      </c>
+      <c r="N20">
+        <v>48.7203369140625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>25063.767578125</v>
+      </c>
+      <c r="D21">
+        <v>110.49134979248051</v>
+      </c>
+      <c r="E21">
+        <v>0.1103712164246915</v>
+      </c>
+      <c r="F21">
+        <v>133.77315179570149</v>
+      </c>
+      <c r="G21">
+        <v>-0.56388355772190601</v>
+      </c>
+      <c r="H21">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I21">
+        <v>34495.838785806569</v>
+      </c>
+      <c r="J21">
+        <v>85.61034918620328</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>3274.45556640625</v>
+      </c>
+      <c r="N21">
+        <v>44.800010681152337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>33632.633447265624</v>
+      </c>
+      <c r="D22">
+        <v>119.53964691162111</v>
+      </c>
+      <c r="E22">
+        <v>0.1175970654590752</v>
+      </c>
+      <c r="F22">
+        <v>148.211200646788</v>
+      </c>
+      <c r="G22">
+        <v>-1.0180094789206959</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>52378.556388874087</v>
+      </c>
+      <c r="J22">
+        <v>101.89127223584801</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>15</v>
+      </c>
+      <c r="M22">
+        <v>3553.909423828125</v>
+      </c>
+      <c r="N22">
+        <v>46.766437530517578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>23295.503955078129</v>
+      </c>
+      <c r="D23">
+        <v>107.2926010131836</v>
+      </c>
+      <c r="E23">
+        <v>0.10923185620458389</v>
+      </c>
+      <c r="F23">
+        <v>128.18009363083851</v>
+      </c>
+      <c r="G23">
+        <v>-0.4516548559115468</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>33025.893692857673</v>
+      </c>
+      <c r="J23">
+        <v>82.464164160029767</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>3418.715087890625</v>
+      </c>
+      <c r="N23">
+        <v>45.816856384277337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>31288.5400390625</v>
+      </c>
+      <c r="D24">
+        <v>111.4091255187988</v>
+      </c>
+      <c r="E24">
+        <v>0.10217626016686659</v>
+      </c>
+      <c r="F24">
+        <v>135.6590994598015</v>
+      </c>
+      <c r="G24">
+        <v>-0.81589948340686258</v>
+      </c>
+      <c r="H24">
+        <v>57.8</v>
+      </c>
+      <c r="I24">
+        <v>53641.486737300489</v>
+      </c>
+      <c r="J24">
+        <v>108.4879590788349</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>3662.671142578125</v>
+      </c>
+      <c r="N24">
+        <v>46.640106201171882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>56600.462500000001</v>
+      </c>
+      <c r="D25">
+        <v>155.94213333129881</v>
+      </c>
+      <c r="E25">
+        <v>0.1499693594373798</v>
+      </c>
+      <c r="F25">
+        <v>174.6664458549505</v>
+      </c>
+      <c r="G25">
+        <v>-2.1889542867654539</v>
+      </c>
+      <c r="H25">
+        <v>38.6</v>
+      </c>
+      <c r="I25">
+        <v>104311.3013572394</v>
+      </c>
+      <c r="J25">
+        <v>178.43719540433631</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>3756.8994140625</v>
+      </c>
+      <c r="N25">
+        <v>47.672214508056641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>67285.988964843753</v>
+      </c>
+      <c r="D26">
+        <v>188.65048980712891</v>
+      </c>
+      <c r="E26">
+        <v>0.17215887502533661</v>
+      </c>
+      <c r="F26">
+        <v>210.24139519426379</v>
+      </c>
+      <c r="G26">
+        <v>-2.6460175754538628</v>
+      </c>
+      <c r="H26">
+        <v>28.2</v>
+      </c>
+      <c r="I26">
+        <v>84176.776491705023</v>
+      </c>
+      <c r="J26">
+        <v>161.09734498572621</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>5733.232421875</v>
+      </c>
+      <c r="N26">
+        <v>60.571426391601563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>32832.225195312501</v>
+      </c>
+      <c r="D27">
+        <v>120.0105735778809</v>
+      </c>
+      <c r="E27">
+        <v>0.11230218050069669</v>
+      </c>
+      <c r="F27">
+        <v>138.3683655702593</v>
+      </c>
+      <c r="G27">
+        <v>-0.90360751916183535</v>
+      </c>
+      <c r="H27">
+        <v>61.6</v>
+      </c>
+      <c r="I27">
+        <v>57188.546628335753</v>
+      </c>
+      <c r="J27">
+        <v>124.17845545289509</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>3976.59521484375</v>
+      </c>
+      <c r="N27">
+        <v>49.427791595458977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>26464.337988281251</v>
+      </c>
+      <c r="D28">
+        <v>111.981909942627</v>
+      </c>
+      <c r="E28">
+        <v>0.1066932072720873</v>
+      </c>
+      <c r="F28">
+        <v>132.13181545486299</v>
+      </c>
+      <c r="G28">
+        <v>-0.58660530307493708</v>
+      </c>
+      <c r="H28">
+        <v>52.2</v>
+      </c>
+      <c r="I28">
+        <v>41291.776628419517</v>
+      </c>
+      <c r="J28">
+        <v>97.499483834253809</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>3787.716796875</v>
+      </c>
+      <c r="N28">
+        <v>48.383140563964851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>28141.69887695312</v>
+      </c>
+      <c r="D29">
+        <v>117.309684753418</v>
+      </c>
+      <c r="E29">
+        <v>0.1164513166523613</v>
+      </c>
+      <c r="F29">
+        <v>139.5398623336049</v>
+      </c>
+      <c r="G29">
+        <v>-0.73693147082445642</v>
+      </c>
+      <c r="H29">
+        <v>51.4</v>
+      </c>
+      <c r="I29">
+        <v>41408.162637066947</v>
+      </c>
+      <c r="J29">
+        <v>96.694435796459217</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>4034.126708984375</v>
+      </c>
+      <c r="N29">
+        <v>50.717117309570313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>35199.489941406253</v>
+      </c>
+      <c r="D30">
+        <v>130.96417465209959</v>
+      </c>
+      <c r="E30">
+        <v>0.13196268722890631</v>
+      </c>
+      <c r="F30">
+        <v>150.81378655042241</v>
+      </c>
+      <c r="G30">
+        <v>-1.12150838826652</v>
+      </c>
+      <c r="H30">
+        <v>44.6</v>
+      </c>
+      <c r="I30">
+        <v>57054.928836235769</v>
+      </c>
+      <c r="J30">
+        <v>119.9341914682151</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
+      <c r="M30">
+        <v>5086.3681640625</v>
+      </c>
+      <c r="N30">
+        <v>56.780910491943359</v>
       </c>
     </row>
   </sheetData>

--- a/Eksperimen 6/ACES/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ACES/training_results_with_epoch.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C2948-E093-4862-8592-0D9D8D5C8E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -164,8 +158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,21 +222,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +266,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -314,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -349,10 +334,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,24 +509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -582,25 +556,25 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>134820.375</v>
+        <v>119786.296875</v>
       </c>
       <c r="F2">
-        <v>339.59469604492188</v>
+        <v>301.6027526855469</v>
       </c>
       <c r="G2">
-        <v>0.2754963641992183</v>
+        <v>0.2408252802280958</v>
       </c>
       <c r="H2">
-        <v>367.05035345697752</v>
+        <v>346.0753491707113</v>
       </c>
       <c r="I2">
-        <v>-5.9942480116816172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.233701066291687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -611,25 +585,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>14982.7568359375</v>
+        <v>81684</v>
       </c>
       <c r="F3">
-        <v>96.806785583496094</v>
+        <v>252.6526489257812</v>
       </c>
       <c r="G3">
-        <v>7.3761844795823303E-2</v>
+        <v>0.1754828440843651</v>
       </c>
       <c r="H3">
-        <v>122.1237802650173</v>
+        <v>285.6078566342165</v>
       </c>
       <c r="I3">
-        <v>0.3410202178077118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-2.569963231175957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -643,22 +617,22 @@
         <v>53</v>
       </c>
       <c r="E4">
-        <v>5958.15283203125</v>
+        <v>6070.69873046875</v>
       </c>
       <c r="F4">
-        <v>61.055866241455078</v>
+        <v>61.75927352905273</v>
       </c>
       <c r="G4">
-        <v>4.8417311631900398E-2</v>
+        <v>0.0490734799102345</v>
       </c>
       <c r="H4">
-        <v>76.737063086779699</v>
+        <v>77.47625279365276</v>
       </c>
       <c r="I4">
-        <v>0.5340850107720887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5251833275251854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -669,25 +643,25 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>4423.24609375</v>
+        <v>4250.689453125</v>
       </c>
       <c r="F5">
-        <v>53.167728424072273</v>
+        <v>54.06869506835938</v>
       </c>
       <c r="G5">
-        <v>0.1022500383468487</v>
+        <v>0.1055167274174651</v>
       </c>
       <c r="H5">
-        <v>65.06121344388545</v>
+        <v>63.5062515646624</v>
       </c>
       <c r="I5">
-        <v>0.60467162146122666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6198242713837214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -698,25 +672,25 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>3976.59521484375</v>
+        <v>7053.38427734375</v>
       </c>
       <c r="F6">
-        <v>49.427791595458977</v>
+        <v>65.98105621337891</v>
       </c>
       <c r="G6">
-        <v>6.1585343529692901E-2</v>
+        <v>0.0795195367401903</v>
       </c>
       <c r="H6">
-        <v>60.869417598636488</v>
+        <v>82.35485544569195</v>
       </c>
       <c r="I6">
-        <v>-3.5664341685865998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.7314425192182969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -730,22 +704,22 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>100396.8671875</v>
+        <v>115004.2109375</v>
       </c>
       <c r="F7">
-        <v>280.51123046875</v>
+        <v>290.9263610839844</v>
       </c>
       <c r="G7">
-        <v>0.2248101807204691</v>
+        <v>0.2316559487982109</v>
       </c>
       <c r="H7">
-        <v>316.82587807049782</v>
+        <v>339.0922001958085</v>
       </c>
       <c r="I7">
-        <v>-4.2233780692881693</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.983227856079052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -756,25 +730,25 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>29856.794921875</v>
+        <v>40545.03515625</v>
       </c>
       <c r="F8">
-        <v>146.51512145996091</v>
+        <v>174.9710693359375</v>
       </c>
       <c r="G8">
-        <v>0.1045265141144</v>
+        <v>0.1235852542969761</v>
       </c>
       <c r="H8">
-        <v>172.5764790437303</v>
+        <v>201.0867064448396</v>
       </c>
       <c r="I8">
-        <v>-0.3037666199591354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.7702983251220794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -785,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>5634.041015625</v>
+        <v>5964.2490234375</v>
       </c>
       <c r="F9">
-        <v>59.071552276611328</v>
+        <v>59.86454010009766</v>
       </c>
       <c r="G9">
-        <v>4.67444965209989E-2</v>
+        <v>0.0471244913794287</v>
       </c>
       <c r="H9">
-        <v>74.856529368638107</v>
+        <v>77.04441921612373</v>
       </c>
       <c r="I9">
-        <v>0.56054570961362438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5356683915677763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -814,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>3725.675048828125</v>
+        <v>12988.8564453125</v>
       </c>
       <c r="F10">
-        <v>47.985088348388672</v>
+        <v>98.84420776367188</v>
       </c>
       <c r="G10">
-        <v>9.1024817355169096E-2</v>
+        <v>0.1904982761538342</v>
       </c>
       <c r="H10">
-        <v>59.208930574009088</v>
+        <v>113.7418551511327</v>
       </c>
       <c r="I10">
-        <v>0.66580926293981657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1294780303275368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -843,25 +817,25 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3842.026123046875</v>
+        <v>3599.329345703125</v>
       </c>
       <c r="F11">
-        <v>48.470726013183601</v>
+        <v>47.78776931762695</v>
       </c>
       <c r="G11">
-        <v>6.0353142586086997E-2</v>
+        <v>0.0594833725824345</v>
       </c>
       <c r="H11">
-        <v>59.701339783600389</v>
+        <v>59.53368862726195</v>
       </c>
       <c r="I11">
-        <v>3.0224219583662702E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1032909043030254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -872,25 +846,25 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>475520.875</v>
+        <v>117703.9609375</v>
       </c>
       <c r="F12">
-        <v>578.64324951171875</v>
+        <v>311.2023010253906</v>
       </c>
       <c r="G12">
-        <v>0.45984664598487829</v>
+        <v>0.2510566943437046</v>
       </c>
       <c r="H12">
-        <v>689.50837220812082</v>
+        <v>342.9705269563665</v>
       </c>
       <c r="I12">
-        <v>-23.73461997434018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.107894928198306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -901,25 +875,25 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>19787.08203125</v>
+        <v>17314.302734375</v>
       </c>
       <c r="F13">
-        <v>116.06048583984381</v>
+        <v>102.8113632202148</v>
       </c>
       <c r="G13">
-        <v>8.5439688712577094E-2</v>
+        <v>0.0797894828613933</v>
       </c>
       <c r="H13">
-        <v>140.65349254722449</v>
+        <v>131.3702646400255</v>
       </c>
       <c r="I13">
-        <v>0.13395167668541499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2389005809355587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -933,22 +907,22 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>6013.52783203125</v>
+        <v>5967.07958984375</v>
       </c>
       <c r="F14">
-        <v>61.472869873046882</v>
+        <v>60.33173370361328</v>
       </c>
       <c r="G14">
-        <v>4.8716305881945803E-2</v>
+        <v>0.047023536305991</v>
       </c>
       <c r="H14">
-        <v>77.198895093837336</v>
+        <v>77.20124993221278</v>
       </c>
       <c r="I14">
-        <v>0.53039493679465033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5374522107066648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -959,25 +933,25 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>4551.3115234375</v>
+        <v>13496.7314453125</v>
       </c>
       <c r="F15">
-        <v>55.77294921875</v>
+        <v>97.66808319091795</v>
       </c>
       <c r="G15">
-        <v>0.1073352985976057</v>
+        <v>0.1744784075375988</v>
       </c>
       <c r="H15">
-        <v>65.956712944511779</v>
+        <v>115.7671633888487</v>
       </c>
       <c r="I15">
-        <v>0.59375238433786548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1735004665939243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -988,25 +962,25 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3621.72314453125</v>
+        <v>3647.9462890625</v>
       </c>
       <c r="F16">
-        <v>46.998710632324219</v>
+        <v>47.11026000976562</v>
       </c>
       <c r="G16">
-        <v>5.8826821002787702E-2</v>
+        <v>0.0586042562105731</v>
       </c>
       <c r="H16">
-        <v>57.779478463948386</v>
+        <v>58.10121997195204</v>
       </c>
       <c r="I16">
-        <v>8.4941678401494594E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0786132513209418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1017,25 +991,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>136964.640625</v>
+        <v>237873.890625</v>
       </c>
       <c r="F17">
-        <v>342.83877563476563</v>
+        <v>464.6670532226562</v>
       </c>
       <c r="G17">
-        <v>0.27828177725835118</v>
+        <v>0.3808837379149912</v>
       </c>
       <c r="H17">
-        <v>370.04683275767007</v>
+        <v>487.369784501501</v>
       </c>
       <c r="I17">
-        <v>-6.124950625467914</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-11.35046468894166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1046,25 +1020,25 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18">
-        <v>15325.1279296875</v>
+        <v>15700.3505859375</v>
       </c>
       <c r="F18">
-        <v>95.667251586914063</v>
+        <v>96.09198760986328</v>
       </c>
       <c r="G18">
-        <v>7.3302242048068997E-2</v>
+        <v>0.0740933634298402</v>
       </c>
       <c r="H18">
-        <v>123.7821076866236</v>
+        <v>125.2555342849601</v>
       </c>
       <c r="I18">
-        <v>0.32815706840813791</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3111550621079977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1075,25 +1049,25 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>5944.65283203125</v>
+        <v>6444.92529296875</v>
       </c>
       <c r="F19">
-        <v>61.67474365234375</v>
+        <v>63.90695571899414</v>
       </c>
       <c r="G19">
-        <v>4.8310559259388902E-2</v>
+        <v>0.0501339496828512</v>
       </c>
       <c r="H19">
-        <v>77.050157484802341</v>
+        <v>80.15093320269078</v>
       </c>
       <c r="I19">
-        <v>0.53825055924991683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4984832523494651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1104,25 +1078,25 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>12676.66015625</v>
+        <v>12180.7548828125</v>
       </c>
       <c r="F20">
-        <v>97.859191894531236</v>
+        <v>96.10594940185548</v>
       </c>
       <c r="G20">
-        <v>0.18984900650585881</v>
+        <v>0.1811820393661341</v>
       </c>
       <c r="H20">
-        <v>112.34422095402689</v>
+        <v>110.1949619912842</v>
       </c>
       <c r="I20">
-        <v>-9.9388674356003001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0554521981794597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1133,25 +1107,25 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>5086.3681640625</v>
+        <v>4574.76904296875</v>
       </c>
       <c r="F21">
-        <v>56.780910491943359</v>
+        <v>53.80073928833008</v>
       </c>
       <c r="G21">
-        <v>7.0069851072863606E-2</v>
+        <v>0.0660445858105269</v>
       </c>
       <c r="H21">
-        <v>70.845613868989318</v>
+        <v>66.43272545470494</v>
       </c>
       <c r="I21">
-        <v>-0.24961026916674051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1474767516198159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1162,25 +1136,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E22">
-        <v>145811.875</v>
+        <v>98408.8203125</v>
       </c>
       <c r="F22">
-        <v>349.72607421875</v>
+        <v>280.8493957519531</v>
       </c>
       <c r="G22">
-        <v>0.28313423546277849</v>
+        <v>0.2257219708006898</v>
       </c>
       <c r="H22">
-        <v>381.83159769129628</v>
+        <v>313.6796644426313</v>
       </c>
       <c r="I22">
-        <v>-6.5927785392312099</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.121805416913702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1191,25 +1165,25 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E23">
-        <v>17073.0859375</v>
+        <v>19351.15625</v>
       </c>
       <c r="F23">
-        <v>103.1474533081055</v>
+        <v>114.2257995605469</v>
       </c>
       <c r="G23">
-        <v>7.8116504658210503E-2</v>
+        <v>0.0851917012040494</v>
       </c>
       <c r="H23">
-        <v>130.5789027503765</v>
+        <v>139.1068451316271</v>
       </c>
       <c r="I23">
-        <v>0.25052684347238668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1523332641932806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1220,25 +1194,25 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>6155.15087890625</v>
+        <v>5581.78759765625</v>
       </c>
       <c r="F24">
-        <v>62.028812408447273</v>
+        <v>59.06019973754883</v>
       </c>
       <c r="G24">
-        <v>4.9277557669185901E-2</v>
+        <v>0.046881032510213</v>
       </c>
       <c r="H24">
-        <v>78.059970073372128</v>
+        <v>74.5174983164119</v>
       </c>
       <c r="I24">
-        <v>0.51881240810664453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5646206155622302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1249,25 +1223,25 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>5578.24267578125</v>
+        <v>6035.0615234375</v>
       </c>
       <c r="F25">
-        <v>61.073146820068359</v>
+        <v>59.97473907470703</v>
       </c>
       <c r="G25">
-        <v>0.1173478903803713</v>
+        <v>0.1078754221400809</v>
       </c>
       <c r="H25">
-        <v>73.689952745570764</v>
+        <v>76.36289646207918</v>
       </c>
       <c r="I25">
-        <v>0.50381619089779883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4619646575175577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1278,25 +1252,25 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>3810.57763671875</v>
+        <v>4174.2158203125</v>
       </c>
       <c r="F26">
-        <v>48.665904998779297</v>
+        <v>50.93564224243164</v>
       </c>
       <c r="G26">
-        <v>6.1021920728488999E-2</v>
+        <v>0.0637415192585329</v>
       </c>
       <c r="H26">
-        <v>59.695162395334599</v>
+        <v>62.49185112953369</v>
       </c>
       <c r="I26">
-        <v>3.91480529222284E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.052570745524545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1307,25 +1281,25 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E27">
-        <v>126805.53125</v>
+        <v>102753.8046875</v>
       </c>
       <c r="F27">
-        <v>301.89151000976563</v>
+        <v>286.7163391113281</v>
       </c>
       <c r="G27">
-        <v>0.239630958882038</v>
+        <v>0.2303771831899956</v>
       </c>
       <c r="H27">
-        <v>356.06327769350298</v>
+        <v>320.4122890783929</v>
       </c>
       <c r="I27">
-        <v>-5.5967873874804477</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.327836038747247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1336,25 +1310,25 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>16161.5673828125</v>
+        <v>62174.25</v>
       </c>
       <c r="F28">
-        <v>98.499328613281236</v>
+        <v>218.8927001953125</v>
       </c>
       <c r="G28">
-        <v>7.5160480566829793E-2</v>
+        <v>0.1524583464828836</v>
       </c>
       <c r="H28">
-        <v>127.0291973265834</v>
+        <v>249.1096602802525</v>
       </c>
       <c r="I28">
-        <v>0.2903386673038757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-1.716013867539669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1365,25 +1339,25 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>5930.94287109375</v>
+        <v>5713.5390625</v>
       </c>
       <c r="F29">
-        <v>60.965488433837891</v>
+        <v>59.20624923706055</v>
       </c>
       <c r="G29">
-        <v>4.83779530504772E-2</v>
+        <v>0.0467250354677709</v>
       </c>
       <c r="H29">
-        <v>76.524989003164208</v>
+        <v>75.17381577129413</v>
       </c>
       <c r="I29">
-        <v>0.53612206149637787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5537613199871626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1394,25 +1368,25 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>3662.671142578125</v>
+        <v>6329.23779296875</v>
       </c>
       <c r="F30">
-        <v>46.640106201171882</v>
+        <v>61.8863639831543</v>
       </c>
       <c r="G30">
-        <v>8.6401452443615204E-2</v>
+        <v>0.116984005776478</v>
       </c>
       <c r="H30">
-        <v>58.707279553218072</v>
+        <v>78.12590332734322</v>
       </c>
       <c r="I30">
-        <v>0.67147430776307226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.43568311740054</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1423,25 +1397,25 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E31">
-        <v>3881.987548828125</v>
+        <v>3743.862060546875</v>
       </c>
       <c r="F31">
-        <v>49.0491943359375</v>
+        <v>48.19223403930664</v>
       </c>
       <c r="G31">
-        <v>6.1310455891372899E-2</v>
+        <v>0.0599876675846325</v>
       </c>
       <c r="H31">
-        <v>59.970753722538738</v>
+        <v>59.15613991263242</v>
       </c>
       <c r="I31">
-        <v>1.93549338828089E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0558687292956049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1452,25 +1426,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>99938.2890625</v>
+        <v>293116.75</v>
       </c>
       <c r="F32">
-        <v>283.709228515625</v>
+        <v>512.2249755859375</v>
       </c>
       <c r="G32">
-        <v>0.2281653764598382</v>
+        <v>0.4188490595139479</v>
       </c>
       <c r="H32">
-        <v>316.09190217969189</v>
+        <v>541.1006384267276</v>
       </c>
       <c r="I32">
-        <v>-4.1977243736085121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-14.24384999889065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1481,25 +1455,25 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>14842.9814453125</v>
+        <v>128228.9765625</v>
       </c>
       <c r="F33">
-        <v>94.2540283203125</v>
+        <v>325.3860168457031</v>
       </c>
       <c r="G33">
-        <v>7.196812853581E-2</v>
+        <v>0.2265556905461766</v>
       </c>
       <c r="H33">
-        <v>121.64752979789979</v>
+        <v>357.8565737983271</v>
       </c>
       <c r="I33">
-        <v>0.34766283608098281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.609575490889859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1510,25 +1484,25 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E34">
-        <v>8450.876953125</v>
+        <v>5820.53369140625</v>
       </c>
       <c r="F34">
-        <v>73.456298828125</v>
+        <v>61.12945938110352</v>
       </c>
       <c r="G34">
-        <v>5.7335216180655901E-2</v>
+        <v>0.0480175558315656</v>
       </c>
       <c r="H34">
-        <v>91.8238627577187</v>
+        <v>76.12597732044219</v>
       </c>
       <c r="I34">
-        <v>0.3442104466287203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5468174159738507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1539,25 +1513,25 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>5301.82568359375</v>
+        <v>14476.5830078125</v>
       </c>
       <c r="F35">
-        <v>60.106853485107422</v>
+        <v>99.35336303710938</v>
       </c>
       <c r="G35">
-        <v>0.11514462985297599</v>
+        <v>0.1742124878077384</v>
       </c>
       <c r="H35">
-        <v>71.723513607773725</v>
+        <v>119.3982817224111</v>
       </c>
       <c r="I35">
-        <v>0.52864876631117874</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2493919631535477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1568,25 +1542,25 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
-        <v>3787.716796875</v>
+        <v>3872.371826171875</v>
       </c>
       <c r="F36">
-        <v>48.383140563964851</v>
+        <v>48.81060791015625</v>
       </c>
       <c r="G36">
-        <v>6.0852685331156398E-2</v>
+        <v>0.0610646496060713</v>
       </c>
       <c r="H36">
-        <v>59.372268931230728</v>
+        <v>59.99440357369356</v>
       </c>
       <c r="I36">
-        <v>4.4175809212944901E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0226755907992474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1597,25 +1571,25 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E37">
-        <v>101737.1875</v>
+        <v>99117.109375</v>
       </c>
       <c r="F37">
-        <v>286.64959716796881</v>
+        <v>281.977294921875</v>
       </c>
       <c r="G37">
-        <v>0.23061836579457529</v>
+        <v>0.2266537637535831</v>
       </c>
       <c r="H37">
-        <v>318.92275471959118</v>
+        <v>314.8034638510741</v>
       </c>
       <c r="I37">
-        <v>-4.2904797814183384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.157656369379899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1626,25 +1600,25 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38">
-        <v>14081.0458984375</v>
+        <v>16274.5517578125</v>
       </c>
       <c r="F38">
-        <v>88.961326599121094</v>
+        <v>96.73589324951172</v>
       </c>
       <c r="G38">
-        <v>6.8557828423311803E-2</v>
+        <v>0.07456614249463191</v>
       </c>
       <c r="H38">
-        <v>118.4215588371006</v>
+        <v>127.3480212581778</v>
       </c>
       <c r="I38">
-        <v>0.38079660090492079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2845682944397598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1655,25 +1629,25 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>6195.73388671875</v>
+        <v>6717.21044921875</v>
       </c>
       <c r="F39">
-        <v>61.170211791992188</v>
+        <v>65.46553039550781</v>
       </c>
       <c r="G39">
-        <v>4.7444964361445498E-2</v>
+        <v>0.0508365762840467</v>
       </c>
       <c r="H39">
-        <v>78.600289982850711</v>
+        <v>81.88375192819079</v>
       </c>
       <c r="I39">
-        <v>0.52034126427742811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4787505393339717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1684,25 +1658,25 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>14660.400390625</v>
+        <v>22761.716796875</v>
       </c>
       <c r="F40">
-        <v>99.0501708984375</v>
+        <v>120.4742050170898</v>
       </c>
       <c r="G40">
-        <v>0.17270347672196179</v>
+        <v>0.2071222484481224</v>
       </c>
       <c r="H40">
-        <v>119.8331323175881</v>
+        <v>149.913485148026</v>
       </c>
       <c r="I40">
-        <v>-0.28035083205151318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.983698995828366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1713,25 +1687,25 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>4034.126708984375</v>
+        <v>3538.288818359375</v>
       </c>
       <c r="F41">
-        <v>50.717117309570313</v>
+        <v>47.22919464111328</v>
       </c>
       <c r="G41">
-        <v>6.2931947960512394E-2</v>
+        <v>0.0587448768201062</v>
       </c>
       <c r="H41">
-        <v>61.921575810893799</v>
+        <v>58.22623647316269</v>
       </c>
       <c r="I41">
-        <v>-1.49646058347804E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1114133419132078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1742,25 +1716,25 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E42">
-        <v>99651.84375</v>
+        <v>485539.5625</v>
       </c>
       <c r="F42">
-        <v>280.58895874023438</v>
+        <v>591.7442626953125</v>
       </c>
       <c r="G42">
-        <v>0.22508603168229999</v>
+        <v>0.4704333980913207</v>
       </c>
       <c r="H42">
-        <v>315.65045634409569</v>
+        <v>696.7422928398159</v>
       </c>
       <c r="I42">
-        <v>-4.1852272818508469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-24.26167305144706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1771,25 +1745,25 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>19832.294921875</v>
+        <v>43434.19921875</v>
       </c>
       <c r="F43">
-        <v>110.94541168212891</v>
+        <v>176.8715515136719</v>
       </c>
       <c r="G43">
-        <v>8.4792063888022795E-2</v>
+        <v>0.1241094785651772</v>
       </c>
       <c r="H43">
-        <v>140.82590925287101</v>
+        <v>208.1989569601396</v>
       </c>
       <c r="I43">
-        <v>0.1311694475832412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.8975247946674426</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1800,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E44">
-        <v>5814.5849609375</v>
+        <v>5805.35595703125</v>
       </c>
       <c r="F44">
-        <v>60.254482269287109</v>
+        <v>58.708740234375</v>
       </c>
       <c r="G44">
-        <v>4.7445203793625303E-2</v>
+        <v>0.0456007063995745</v>
       </c>
       <c r="H44">
-        <v>75.925088803817331</v>
+        <v>76.09718805154955</v>
       </c>
       <c r="I44">
-        <v>0.54671242826786326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5497779868811001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1829,25 +1803,25 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>3885.676513671875</v>
+        <v>4077.546630859375</v>
       </c>
       <c r="F45">
-        <v>48.203029632568359</v>
+        <v>50.33551025390625</v>
       </c>
       <c r="G45">
-        <v>9.0345752003456806E-2</v>
+        <v>0.095049923479019</v>
       </c>
       <c r="H45">
-        <v>60.528509693213842</v>
+        <v>62.58107739579531</v>
       </c>
       <c r="I45">
-        <v>0.65162093895816064</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6359833840020644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1858,25 +1832,25 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>3580.9697265625</v>
+        <v>3833.1298828125</v>
       </c>
       <c r="F46">
-        <v>46.670093536376953</v>
+        <v>48.45933151245117</v>
       </c>
       <c r="G46">
-        <v>5.8065379633885902E-2</v>
+        <v>0.0605448758769177</v>
       </c>
       <c r="H46">
-        <v>57.58484020639041</v>
+        <v>59.49988322412017</v>
       </c>
       <c r="I46">
-        <v>9.5756933070582806E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0310068894057889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1887,25 +1861,25 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>860998</v>
+        <v>99202.15625</v>
       </c>
       <c r="F47">
-        <v>856.58697509765625</v>
+        <v>280.9455871582031</v>
       </c>
       <c r="G47">
-        <v>0.70043643228414565</v>
+        <v>0.2255791680801195</v>
       </c>
       <c r="H47">
-        <v>927.81111394748518</v>
+        <v>314.935031978195</v>
       </c>
       <c r="I47">
-        <v>-43.802995682543283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.161030455020583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1916,25 +1890,25 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>14942.2021484375</v>
+        <v>16254.4091796875</v>
       </c>
       <c r="F48">
-        <v>88.52294921875</v>
+        <v>98.63729095458984</v>
       </c>
       <c r="G48">
-        <v>6.9291646544156899E-2</v>
+        <v>0.0759640954405105</v>
       </c>
       <c r="H48">
-        <v>121.7348492356434</v>
+        <v>127.4017440469871</v>
       </c>
       <c r="I48">
-        <v>0.3417786610980082</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2863547560791682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1945,25 +1919,25 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E49">
-        <v>6613.0380859375</v>
+        <v>5882.708984375</v>
       </c>
       <c r="F49">
-        <v>63.179969787597663</v>
+        <v>61.15806579589844</v>
       </c>
       <c r="G49">
-        <v>4.8861250095947599E-2</v>
+        <v>0.0483013823007302</v>
       </c>
       <c r="H49">
-        <v>81.224031581590495</v>
+        <v>76.3276569205257</v>
       </c>
       <c r="I49">
-        <v>0.48787808620834477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5409244192532113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1974,25 +1948,25 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>13624.39453125</v>
+        <v>12609.4482421875</v>
       </c>
       <c r="F50">
-        <v>97.347946166992202</v>
+        <v>96.83175659179688</v>
       </c>
       <c r="G50">
-        <v>0.17198830292002501</v>
+        <v>0.1878466512109337</v>
       </c>
       <c r="H50">
-        <v>116.2449096508858</v>
+        <v>111.9187481555806</v>
       </c>
       <c r="I50">
-        <v>-0.17684440462604789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.091088902434746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2003,25 +1977,25 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>5213.78662109375</v>
+        <v>4268.064453125</v>
       </c>
       <c r="F51">
-        <v>59.541847229003913</v>
+        <v>51.94306182861328</v>
       </c>
       <c r="G51">
-        <v>7.6342086440988902E-2</v>
+        <v>0.0644325125758442</v>
       </c>
       <c r="H51">
-        <v>71.716906637771274</v>
+        <v>63.75206395103028</v>
       </c>
       <c r="I51">
-        <v>-0.28197269630504701</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0738722593329157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2032,25 +2006,25 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>286015.65625</v>
+        <v>255653.15625</v>
       </c>
       <c r="F52">
-        <v>430.29898071289063</v>
+        <v>485.376220703125</v>
       </c>
       <c r="G52">
-        <v>0.3387821375173935</v>
+        <v>0.3989130599279911</v>
       </c>
       <c r="H52">
-        <v>534.75917017103791</v>
+        <v>505.5223767839456</v>
       </c>
       <c r="I52">
-        <v>-13.88272820552835</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-12.30358079790579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2061,25 +2035,25 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E53">
-        <v>15606.2568359375</v>
+        <v>17968.162109375</v>
       </c>
       <c r="F53">
-        <v>95.861885070800781</v>
+        <v>107.3055801391602</v>
       </c>
       <c r="G53">
-        <v>7.3150210288961404E-2</v>
+        <v>0.0801708940927839</v>
       </c>
       <c r="H53">
-        <v>124.7924130582049</v>
+        <v>134.043858974763</v>
       </c>
       <c r="I53">
-        <v>0.31445890063495358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2128966925975146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2090,25 +2064,25 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>5785.1083984375</v>
+        <v>5828.16943359375</v>
       </c>
       <c r="F54">
-        <v>60.785198211669922</v>
+        <v>60.17753982543945</v>
       </c>
       <c r="G54">
-        <v>4.7618642667632501E-2</v>
+        <v>0.0469735752743582</v>
       </c>
       <c r="H54">
-        <v>75.909320721626216</v>
+        <v>76.2291371001659</v>
       </c>
       <c r="I54">
-        <v>0.5501201952160053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5472958802535032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2119,25 +2093,25 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>17394.654296875</v>
+        <v>12106.7353515625</v>
       </c>
       <c r="F55">
-        <v>111.4859924316406</v>
+        <v>95.66934967041016</v>
       </c>
       <c r="G55">
-        <v>0.23165199730989289</v>
+        <v>0.1795517028796776</v>
       </c>
       <c r="H55">
-        <v>130.6529011284201</v>
+        <v>109.8464797978339</v>
       </c>
       <c r="I55">
-        <v>-0.50872360951054452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0509618238696636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2148,25 +2122,25 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E56">
-        <v>4324.62451171875</v>
+        <v>4095.747314453125</v>
       </c>
       <c r="F56">
-        <v>52.194000244140632</v>
+        <v>50.97608947753906</v>
       </c>
       <c r="G56">
-        <v>6.41428020361266E-2</v>
+        <v>0.062133526843327</v>
       </c>
       <c r="H56">
-        <v>64.510497924873249</v>
+        <v>63.17134224113572</v>
       </c>
       <c r="I56">
-        <v>-8.5078472012743295E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0249196165438966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2177,25 +2151,25 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E57">
-        <v>242942.328125</v>
+        <v>251723.515625</v>
       </c>
       <c r="F57">
-        <v>472.45236206054688</v>
+        <v>472.8193664550781</v>
       </c>
       <c r="G57">
-        <v>0.38807803090741277</v>
+        <v>0.3860222582810937</v>
       </c>
       <c r="H57">
-        <v>492.72057959787702</v>
+        <v>501.612486694359</v>
       </c>
       <c r="I57">
-        <v>-11.64158999727111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-12.08892177138792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2206,25 +2180,25 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E58">
-        <v>17381.025390625</v>
+        <v>159830.6875</v>
       </c>
       <c r="F58">
-        <v>101.8374862670898</v>
+        <v>323.5946960449219</v>
       </c>
       <c r="G58">
-        <v>7.9100667567673602E-2</v>
+        <v>0.2236063169634591</v>
       </c>
       <c r="H58">
-        <v>131.67907740856751</v>
+        <v>399.6924351446742</v>
       </c>
       <c r="I58">
-        <v>0.2363277126681107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.992847484341243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2235,25 +2209,25 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E59">
-        <v>5908.5068359375</v>
+        <v>5643.14404296875</v>
       </c>
       <c r="F59">
-        <v>60.818603515625</v>
+        <v>58.97388076782227</v>
       </c>
       <c r="G59">
-        <v>4.8159800012813198E-2</v>
+        <v>0.0465481747456677</v>
       </c>
       <c r="H59">
-        <v>76.39027557156173</v>
+        <v>74.67922806443194</v>
       </c>
       <c r="I59">
-        <v>0.53820292567667172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5592220764452365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2264,25 +2238,25 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E60">
-        <v>13013.552734375</v>
+        <v>3836.409912109375</v>
       </c>
       <c r="F60">
-        <v>96.930000305175781</v>
+        <v>48.46113204956055</v>
       </c>
       <c r="G60">
-        <v>0.1749899254374572</v>
+        <v>0.0914660289583166</v>
       </c>
       <c r="H60">
-        <v>113.72168868934359</v>
+        <v>60.11565554438719</v>
       </c>
       <c r="I60">
-        <v>-0.12825953525392539</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6559605388541451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2293,25 +2267,25 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>3756.8994140625</v>
+        <v>3505.2275390625</v>
       </c>
       <c r="F61">
-        <v>47.672214508056641</v>
+        <v>46.11997985839844</v>
       </c>
       <c r="G61">
-        <v>5.9518373261542197E-2</v>
+        <v>0.0573971251368984</v>
       </c>
       <c r="H61">
-        <v>58.820608007402399</v>
+        <v>56.91919196698056</v>
       </c>
       <c r="I61">
-        <v>5.0547460352981501E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1142862069837072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2322,25 +2296,25 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E62">
-        <v>189087.875</v>
+        <v>128000.8203125</v>
       </c>
       <c r="F62">
-        <v>408.78829956054688</v>
+        <v>329.0666809082031</v>
       </c>
       <c r="G62">
-        <v>0.3334336327278109</v>
+        <v>0.2665273452508785</v>
       </c>
       <c r="H62">
-        <v>434.76387345843932</v>
+        <v>357.7388644763412</v>
       </c>
       <c r="I62">
-        <v>-8.8399172132397155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.66036909990637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2351,25 +2325,25 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="E63">
-        <v>122442.484375</v>
+        <v>13123.1142578125</v>
       </c>
       <c r="F63">
-        <v>312.1055908203125</v>
+        <v>83.18627166748047</v>
       </c>
       <c r="G63">
-        <v>0.2177334197690653</v>
+        <v>0.06468491937469791</v>
       </c>
       <c r="H63">
-        <v>349.67859380185121</v>
+        <v>114.0435933521089</v>
       </c>
       <c r="I63">
-        <v>-4.3535555085287756</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4218826754266198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2383,22 +2357,22 @@
         <v>42</v>
       </c>
       <c r="E64">
-        <v>6666.89404296875</v>
+        <v>6041.154296875</v>
       </c>
       <c r="F64">
-        <v>65.397674560546875</v>
+        <v>61.76495361328125</v>
       </c>
       <c r="G64">
-        <v>5.1670767520209403E-2</v>
+        <v>0.0485848707460257</v>
       </c>
       <c r="H64">
-        <v>81.306043171974338</v>
+        <v>77.49251753902477</v>
       </c>
       <c r="I64">
-        <v>0.47940175401709828</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5293215437913487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2412,22 +2386,22 @@
         <v>8</v>
       </c>
       <c r="E65">
-        <v>12499.458984375</v>
+        <v>14256.23828125</v>
       </c>
       <c r="F65">
-        <v>96.389457702636719</v>
+        <v>103.169303894043</v>
       </c>
       <c r="G65">
-        <v>0.1839544909482459</v>
+        <v>0.2087014510874451</v>
       </c>
       <c r="H65">
-        <v>111.20635233284381</v>
+        <v>118.8419473406647</v>
       </c>
       <c r="I65">
-        <v>-7.8688141928937694E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2348828093698047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2438,25 +2412,25 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>5733.232421875</v>
+        <v>4604.30224609375</v>
       </c>
       <c r="F66">
-        <v>60.571426391601563</v>
+        <v>53.99228286743164</v>
       </c>
       <c r="G66">
-        <v>7.4002064161351494E-2</v>
+        <v>0.0662804950430277</v>
       </c>
       <c r="H66">
-        <v>74.252113206210325</v>
+        <v>66.57293749969885</v>
       </c>
       <c r="I66">
-        <v>-0.4373287675889842</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1550400262880734</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2467,25 +2441,25 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="E67">
-        <v>246869.28125</v>
+        <v>114116.28125</v>
       </c>
       <c r="F67">
-        <v>475.22933959960938</v>
+        <v>303.9375610351562</v>
       </c>
       <c r="G67">
-        <v>0.39006517490815062</v>
+        <v>0.2446572939290965</v>
       </c>
       <c r="H67">
-        <v>496.66743995436798</v>
+        <v>337.7844648526752</v>
       </c>
       <c r="I67">
-        <v>-11.8437429941447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.938410035994798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2496,25 +2470,25 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E68">
-        <v>16177.7177734375</v>
+        <v>14845.212890625</v>
       </c>
       <c r="F68">
-        <v>95.255294799804673</v>
+        <v>90.67597198486328</v>
       </c>
       <c r="G68">
-        <v>7.38165296586617E-2</v>
+        <v>0.0701175360942124</v>
       </c>
       <c r="H68">
-        <v>127.00445214741509</v>
+        <v>121.4251291470794</v>
       </c>
       <c r="I68">
-        <v>0.2890100068314248</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3464497646143823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2525,25 +2499,25 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>6586.63525390625</v>
+        <v>6410.28125</v>
       </c>
       <c r="F69">
-        <v>65.308143615722656</v>
+        <v>64.12273406982422</v>
       </c>
       <c r="G69">
-        <v>5.1890087995002103E-2</v>
+        <v>0.0506803015537582</v>
       </c>
       <c r="H69">
-        <v>80.907740241116201</v>
+        <v>79.69819292344242</v>
       </c>
       <c r="I69">
-        <v>0.48592379622180831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4993612276561592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2554,25 +2528,25 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>13094.3212890625</v>
+        <v>15553.0126953125</v>
       </c>
       <c r="F70">
-        <v>96.898963928222656</v>
+        <v>100.8485946655273</v>
       </c>
       <c r="G70">
-        <v>0.1736225800134033</v>
+        <v>0.172582372696422</v>
       </c>
       <c r="H70">
-        <v>114.06967186277279</v>
+        <v>123.8740296362291</v>
       </c>
       <c r="I70">
-        <v>-0.1358939973369005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.349886354879764</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2583,25 +2557,25 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E71">
-        <v>4712.1240234375</v>
+        <v>3759.95068359375</v>
       </c>
       <c r="F71">
-        <v>56.141639709472663</v>
+        <v>49.03516006469727</v>
       </c>
       <c r="G71">
-        <v>7.1728035873255103E-2</v>
+        <v>0.0608125235455917</v>
       </c>
       <c r="H71">
-        <v>68.43733319408274</v>
+        <v>59.86501132081035</v>
       </c>
       <c r="I71">
-        <v>-0.1582512732001054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0547662010587059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2612,25 +2586,25 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E72">
-        <v>102645.9609375</v>
+        <v>104553.4609375</v>
       </c>
       <c r="F72">
-        <v>288.4423828125</v>
+        <v>289.7985229492188</v>
       </c>
       <c r="G72">
-        <v>0.23217838188976681</v>
+        <v>0.2330024382192641</v>
       </c>
       <c r="H72">
-        <v>320.35702588595439</v>
+        <v>323.3163865628011</v>
       </c>
       <c r="I72">
-        <v>-4.34089710971221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.439159309939078</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2641,25 +2615,25 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E73">
-        <v>15250.1953125</v>
+        <v>15222.2353515625</v>
       </c>
       <c r="F73">
-        <v>92.275222778320327</v>
+        <v>93.59510803222656</v>
       </c>
       <c r="G73">
-        <v>7.1377732606245303E-2</v>
+        <v>0.0723571650010878</v>
       </c>
       <c r="H73">
-        <v>123.21468209423961</v>
+        <v>123.2828515571802</v>
       </c>
       <c r="I73">
-        <v>0.32927386473681169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3316131728172896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2670,25 +2644,25 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E74">
-        <v>6255.650390625</v>
+        <v>6305.45361328125</v>
       </c>
       <c r="F74">
-        <v>63.229824066162109</v>
+        <v>63.12028884887695</v>
       </c>
       <c r="G74">
-        <v>5.0022689733647097E-2</v>
+        <v>0.0497053211313844</v>
       </c>
       <c r="H74">
-        <v>78.706803711798003</v>
+        <v>79.15234381859503</v>
       </c>
       <c r="I74">
-        <v>0.51146650669534965</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5084266698845764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2702,22 +2676,22 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>13693.6171875</v>
+        <v>12036.5673828125</v>
       </c>
       <c r="F75">
-        <v>100.48911285400391</v>
+        <v>94.41079711914062</v>
       </c>
       <c r="G75">
-        <v>0.20087494472617201</v>
+        <v>0.1759514463041894</v>
       </c>
       <c r="H75">
-        <v>116.4645704626125</v>
+        <v>109.5245007154024</v>
       </c>
       <c r="I75">
-        <v>-0.19073982864684111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0423978834739289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2728,25 +2702,25 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>4899.40673828125</v>
+        <v>5650.982421875</v>
       </c>
       <c r="F76">
-        <v>55.988296508789063</v>
+        <v>59.85900115966797</v>
       </c>
       <c r="G76">
-        <v>6.9313170620219994E-2</v>
+        <v>0.07311965164997811</v>
       </c>
       <c r="H76">
-        <v>69.616189498815061</v>
+        <v>74.30474980703254</v>
       </c>
       <c r="I76">
-        <v>-0.2026226108419599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3988304485435072</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2760,22 +2734,22 @@
         <v>80</v>
       </c>
       <c r="E77">
-        <v>94855.2265625</v>
+        <v>85212.6171875</v>
       </c>
       <c r="F77">
-        <v>269.11614990234369</v>
+        <v>256.6817932128906</v>
       </c>
       <c r="G77">
-        <v>0.21494662410916829</v>
+        <v>0.2053011772841178</v>
       </c>
       <c r="H77">
-        <v>307.94854908572319</v>
+        <v>291.8828177920203</v>
       </c>
       <c r="I77">
-        <v>-3.932846520976216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.432638614359181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2786,25 +2760,25 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E78">
-        <v>15114.03515625</v>
+        <v>11524.216796875</v>
       </c>
       <c r="F78">
-        <v>86.73321533203125</v>
+        <v>82.40273284912109</v>
       </c>
       <c r="G78">
-        <v>6.8521820379021894E-2</v>
+        <v>0.0630548840097984</v>
       </c>
       <c r="H78">
-        <v>122.4659273157602</v>
+        <v>106.9294512906305</v>
       </c>
       <c r="I78">
-        <v>0.33436838476324021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4924692588323089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2815,25 +2789,25 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>5258.9482421875</v>
+        <v>5530.98193359375</v>
       </c>
       <c r="F79">
-        <v>58.374568939208977</v>
+        <v>58.17546844482422</v>
       </c>
       <c r="G79">
-        <v>4.5419564229371497E-2</v>
+        <v>0.0453155700235769</v>
       </c>
       <c r="H79">
-        <v>72.452004054158863</v>
+        <v>74.22705465839213</v>
       </c>
       <c r="I79">
-        <v>0.59178067242442334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5705529425410453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2847,22 +2821,22 @@
         <v>4</v>
       </c>
       <c r="E80">
-        <v>22025.16015625</v>
+        <v>17342.373046875</v>
       </c>
       <c r="F80">
-        <v>115.9862976074219</v>
+        <v>104.2749328613281</v>
       </c>
       <c r="G80">
-        <v>0.19039283420313599</v>
+        <v>0.1743654486568173</v>
       </c>
       <c r="H80">
-        <v>146.85406826442869</v>
+        <v>130.984642201673</v>
       </c>
       <c r="I80">
-        <v>-0.90123335941684357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.4977814222398844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2873,25 +2847,25 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E81">
-        <v>4625.2666015625</v>
+        <v>3420.9814453125</v>
       </c>
       <c r="F81">
-        <v>54.161415100097663</v>
+        <v>46.65570831298828</v>
       </c>
       <c r="G81">
-        <v>6.6039749115833504E-2</v>
+        <v>0.0581356071606965</v>
       </c>
       <c r="H81">
-        <v>67.100527405285291</v>
+        <v>57.07160586736798</v>
       </c>
       <c r="I81">
-        <v>-0.15786137417398449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1399774116443491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2902,25 +2876,25 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>83884.5703125</v>
+        <v>127738.921875</v>
       </c>
       <c r="F82">
-        <v>253.9118957519531</v>
+        <v>328.4033203125</v>
       </c>
       <c r="G82">
-        <v>0.20292627016752851</v>
+        <v>0.2659187037672789</v>
       </c>
       <c r="H82">
-        <v>289.59169750227022</v>
+        <v>357.3751739650182</v>
       </c>
       <c r="I82">
-        <v>-3.3618443413083892</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.647804267253181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2931,25 +2905,25 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E83">
-        <v>14545.1640625</v>
+        <v>15213.423828125</v>
       </c>
       <c r="F83">
-        <v>86.636985778808594</v>
+        <v>93.49635314941406</v>
       </c>
       <c r="G83">
-        <v>6.7638689241482003E-2</v>
+        <v>0.0721950329578393</v>
       </c>
       <c r="H83">
-        <v>120.10788694611161</v>
+        <v>123.0848457788475</v>
       </c>
       <c r="I83">
-        <v>0.35936412907141829</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.3309757625981594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2960,25 +2934,25 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>5615.50146484375</v>
+        <v>6176.0107421875</v>
       </c>
       <c r="F84">
-        <v>59.6956787109375</v>
+        <v>64.40465545654297</v>
       </c>
       <c r="G84">
-        <v>4.72461528089047E-2</v>
+        <v>0.0512080450032919</v>
       </c>
       <c r="H84">
-        <v>74.564226243246367</v>
+        <v>78.34630524909736</v>
       </c>
       <c r="I84">
-        <v>0.56119983547193475</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5176045489838889</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2992,22 +2966,22 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>14989.421875</v>
+        <v>18881.279296875</v>
       </c>
       <c r="F85">
-        <v>99.477317810058594</v>
+        <v>109.6282653808594</v>
       </c>
       <c r="G85">
-        <v>0.17065535566270451</v>
+        <v>0.1859769060345119</v>
       </c>
       <c r="H85">
-        <v>121.9227613585572</v>
+        <v>134.4827381455765</v>
       </c>
       <c r="I85">
-        <v>-0.29856857734543057</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6134401638624071</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -3018,25 +2992,25 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>5256.7919921875</v>
+        <v>3938.680419921875</v>
       </c>
       <c r="F86">
-        <v>58.059108734130859</v>
+        <v>48.88082504272461</v>
       </c>
       <c r="G86">
-        <v>7.0858077952611107E-2</v>
+        <v>0.0610951351242309</v>
       </c>
       <c r="H86">
-        <v>71.389396901797255</v>
+        <v>60.75756124181766</v>
       </c>
       <c r="I86">
-        <v>-0.31775517251478108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.006870856646932</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3047,25 +3021,25 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E87">
-        <v>126775.1640625</v>
+        <v>82899.125</v>
       </c>
       <c r="F87">
-        <v>297.38247680664063</v>
+        <v>252.189193725586</v>
       </c>
       <c r="G87">
-        <v>0.23525333615962049</v>
+        <v>0.2015032220202672</v>
       </c>
       <c r="H87">
-        <v>356.01663456365583</v>
+        <v>287.8896521051564</v>
       </c>
       <c r="I87">
-        <v>-5.5938820605273483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.311469084860537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3076,25 +3050,25 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E88">
-        <v>14797.6767578125</v>
+        <v>18349.17578125</v>
       </c>
       <c r="F88">
-        <v>87.418304443359375</v>
+        <v>109.0231018066406</v>
       </c>
       <c r="G88">
-        <v>6.9245179368342194E-2</v>
+        <v>0.0816968967473627</v>
       </c>
       <c r="H88">
-        <v>120.9688835745407</v>
+        <v>135.4560981062647</v>
       </c>
       <c r="I88">
-        <v>0.34766366642165453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1962120643470727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3105,25 +3079,25 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89">
-        <v>5998.2060546875</v>
+        <v>5339.70263671875</v>
       </c>
       <c r="F89">
-        <v>61.725322723388672</v>
+        <v>57.36117553710938</v>
       </c>
       <c r="G89">
-        <v>4.8989166825965401E-2</v>
+        <v>0.0451847006989239</v>
       </c>
       <c r="H89">
-        <v>76.83993624481009</v>
+        <v>72.90958253956948</v>
       </c>
       <c r="I89">
-        <v>0.53076730308822218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.584259791856296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3137,22 +3111,22 @@
         <v>4</v>
       </c>
       <c r="E90">
-        <v>17038.2109375</v>
+        <v>18692.609375</v>
       </c>
       <c r="F90">
-        <v>104.4056930541992</v>
+        <v>108.4548034667969</v>
       </c>
       <c r="G90">
-        <v>0.1768186098866445</v>
+        <v>0.1817191607473507</v>
       </c>
       <c r="H90">
-        <v>129.47087028298321</v>
+        <v>135.1272833724081</v>
       </c>
       <c r="I90">
-        <v>-0.4783285481971612</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6222272158067897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3163,25 +3137,25 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>3553.909423828125</v>
+        <v>4204.62939453125</v>
       </c>
       <c r="F91">
-        <v>46.766437530517578</v>
+        <v>51.37819671630859</v>
       </c>
       <c r="G91">
-        <v>5.7679035054803499E-2</v>
+        <v>0.06402217608310209</v>
       </c>
       <c r="H91">
-        <v>57.759678567950239</v>
+        <v>62.62824773638373</v>
       </c>
       <c r="I91">
-        <v>0.1037322446111537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.0610623824451533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3192,25 +3166,25 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>198984.03125</v>
+        <v>116396.40625</v>
       </c>
       <c r="F92">
-        <v>423.771728515625</v>
+        <v>296.7179870605469</v>
       </c>
       <c r="G92">
-        <v>0.34688225632094932</v>
+        <v>0.2367812915809481</v>
       </c>
       <c r="H92">
-        <v>446.04589943006658</v>
+        <v>341.139706890367</v>
       </c>
       <c r="I92">
-        <v>-9.3571455980567766</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-5.0562014335061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3221,25 +3195,25 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E93">
-        <v>14502.837890625</v>
+        <v>18327.599609375</v>
       </c>
       <c r="F93">
-        <v>96.1861572265625</v>
+        <v>107.3705749511719</v>
       </c>
       <c r="G93">
-        <v>7.2344949937276207E-2</v>
+        <v>0.0798949299661037</v>
       </c>
       <c r="H93">
-        <v>120.3599367140182</v>
+        <v>134.4827894475889</v>
       </c>
       <c r="I93">
-        <v>0.36346284019987229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2027809949213009</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3250,25 +3224,25 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E94">
-        <v>5834.10009765625</v>
+        <v>5567.69140625</v>
       </c>
       <c r="F94">
-        <v>60.865989685058587</v>
+        <v>59.16707611083984</v>
       </c>
       <c r="G94">
-        <v>4.7558506323384299E-2</v>
+        <v>0.0464895445809971</v>
       </c>
       <c r="H94">
-        <v>76.043972129672269</v>
+        <v>74.12422623447024</v>
       </c>
       <c r="I94">
-        <v>0.54487457519360127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5651633210765686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3282,22 +3256,22 @@
         <v>4</v>
       </c>
       <c r="E95">
-        <v>15260.4951171875</v>
+        <v>13196.96875</v>
       </c>
       <c r="F95">
-        <v>101.0828857421875</v>
+        <v>98.73380279541016</v>
       </c>
       <c r="G95">
-        <v>0.1761882148562223</v>
+        <v>0.1838872658090962</v>
       </c>
       <c r="H95">
-        <v>122.95047241468281</v>
+        <v>114.1482397972827</v>
       </c>
       <c r="I95">
-        <v>-0.33464809037303528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1478729425316667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3308,25 +3282,25 @@
         <v>5</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>4137.982421875</v>
+        <v>3596.344482421875</v>
       </c>
       <c r="F96">
-        <v>50.533279418945313</v>
+        <v>46.92557144165039</v>
       </c>
       <c r="G96">
-        <v>6.2157833954614099E-2</v>
+        <v>0.0583327255537515</v>
       </c>
       <c r="H96">
-        <v>62.684308844421963</v>
+        <v>57.99680355477194</v>
       </c>
       <c r="I96">
-        <v>-4.12368439564961E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0927669791628382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3337,25 +3311,25 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E97">
-        <v>87584.3984375</v>
+        <v>84986.2109375</v>
       </c>
       <c r="F97">
-        <v>261.240478515625</v>
+        <v>256.2651672363281</v>
       </c>
       <c r="G97">
-        <v>0.2091627445222238</v>
+        <v>0.2049523518143012</v>
       </c>
       <c r="H97">
-        <v>295.91933754427629</v>
+        <v>291.4955984764142</v>
       </c>
       <c r="I97">
-        <v>-3.5567327596749059</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.421137439789041</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3366,25 +3340,25 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>14005.4111328125</v>
+        <v>12636.2470703125</v>
       </c>
       <c r="F98">
-        <v>93.276069641113281</v>
+        <v>89.62409210205078</v>
       </c>
       <c r="G98">
-        <v>7.08072926185917E-2</v>
+        <v>0.06741277955123109</v>
       </c>
       <c r="H98">
-        <v>118.14882668089849</v>
+        <v>111.9113273753807</v>
       </c>
       <c r="I98">
-        <v>0.38437594695763</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4433817641689482</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3395,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E99">
-        <v>5962.66259765625</v>
+        <v>5598.7109375</v>
       </c>
       <c r="F99">
-        <v>61.062347412109382</v>
+        <v>59.0357780456543</v>
       </c>
       <c r="G99">
-        <v>4.84785873283885E-2</v>
+        <v>0.0462762044317237</v>
       </c>
       <c r="H99">
-        <v>76.81058715127493</v>
+        <v>74.41293748231641</v>
       </c>
       <c r="I99">
-        <v>0.53430006373331784</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5633883432294007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3427,22 +3401,22 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>13170.267578125</v>
+        <v>12983.375</v>
       </c>
       <c r="F100">
-        <v>98.637374877929673</v>
+        <v>97.08786773681641</v>
       </c>
       <c r="G100">
-        <v>0.1866340672176145</v>
+        <v>0.1776919200036062</v>
       </c>
       <c r="H100">
-        <v>114.5081172641582</v>
+        <v>113.6746175021593</v>
       </c>
       <c r="I100">
-        <v>-0.1433951054206874</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1249661156890688</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3453,25 +3427,25 @@
         <v>5</v>
       </c>
       <c r="D101">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E101">
-        <v>3643.86181640625</v>
+        <v>3614.57373046875</v>
       </c>
       <c r="F101">
-        <v>47.464714050292969</v>
+        <v>47.59943771362305</v>
       </c>
       <c r="G101">
-        <v>5.8426267906618798E-2</v>
+        <v>0.0593865776931517</v>
       </c>
       <c r="H101">
-        <v>58.817481162076703</v>
+        <v>58.29525017337849</v>
       </c>
       <c r="I101">
-        <v>8.2900410416205397E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.08943090657861261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3482,25 +3456,25 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E102">
-        <v>84122.4375</v>
+        <v>85592.1171875</v>
       </c>
       <c r="F102">
-        <v>254.61549377441409</v>
+        <v>257.4475708007812</v>
       </c>
       <c r="G102">
-        <v>0.20356080865471601</v>
+        <v>0.2059504399695679</v>
       </c>
       <c r="H102">
-        <v>290.00887062100497</v>
+        <v>292.5216564787234</v>
       </c>
       <c r="I102">
-        <v>-3.3757009306143759</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.450229214131687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3511,25 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>13650.4384765625</v>
+        <v>50281.4609375</v>
       </c>
       <c r="F103">
-        <v>94.981025695800781</v>
+        <v>196.7273864746093</v>
       </c>
       <c r="G103">
-        <v>7.0691385815459001E-2</v>
+        <v>0.1371891095520734</v>
       </c>
       <c r="H103">
-        <v>116.6208943770351</v>
+        <v>224.0404525421788</v>
       </c>
       <c r="I103">
-        <v>0.40001919710217188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-1.196785609095374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3540,25 +3514,25 @@
         <v>3</v>
       </c>
       <c r="D104">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E104">
-        <v>5499.17724609375</v>
+        <v>5693.1328125</v>
       </c>
       <c r="F104">
-        <v>58.467662811279297</v>
+        <v>59.64248275756836</v>
       </c>
       <c r="G104">
-        <v>4.5926720981189301E-2</v>
+        <v>0.0469347697171046</v>
       </c>
       <c r="H104">
-        <v>73.680814286420897</v>
+        <v>74.98362199042712</v>
       </c>
       <c r="I104">
-        <v>0.57074951509911631</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5555337289648793</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3572,22 +3546,22 @@
         <v>4</v>
       </c>
       <c r="E105">
-        <v>13659.052734375</v>
+        <v>12647.595703125</v>
       </c>
       <c r="F105">
-        <v>97.974426269531236</v>
+        <v>97.35872650146484</v>
       </c>
       <c r="G105">
-        <v>0.17579670418647581</v>
+        <v>0.1832290403115395</v>
       </c>
       <c r="H105">
-        <v>116.32157886056051</v>
+        <v>112.293458521842</v>
       </c>
       <c r="I105">
-        <v>-0.1810768382163003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.09832565172876109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3598,25 +3572,25 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>3870.295654296875</v>
+        <v>3820.0673828125</v>
       </c>
       <c r="F106">
-        <v>48.7203369140625</v>
+        <v>48.28108215332031</v>
       </c>
       <c r="G106">
-        <v>6.03767831784821E-2</v>
+        <v>0.060103457603122</v>
       </c>
       <c r="H106">
-        <v>59.89344509679848</v>
+        <v>59.37021679683946</v>
       </c>
       <c r="I106">
-        <v>2.2203938069210401E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0347103106360446</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3627,25 +3601,25 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E107">
-        <v>83486.5234375</v>
+        <v>85451.2734375</v>
       </c>
       <c r="F107">
-        <v>253.3350830078125</v>
+        <v>257.1828002929688</v>
       </c>
       <c r="G107">
-        <v>0.202468893816073</v>
+        <v>0.2057336257953753</v>
       </c>
       <c r="H107">
-        <v>288.90332161701559</v>
+        <v>292.2942131835526</v>
       </c>
       <c r="I107">
-        <v>-3.341180245131981</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.445925399548734</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3656,25 +3630,25 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E108">
-        <v>11944.0625</v>
+        <v>13333.2041015625</v>
       </c>
       <c r="F108">
-        <v>84.91729736328125</v>
+        <v>90.44955444335938</v>
       </c>
       <c r="G108">
-        <v>6.4614227455340706E-2</v>
+        <v>0.0693308977564783</v>
       </c>
       <c r="H108">
-        <v>108.57994975118319</v>
+        <v>115.262206512329</v>
       </c>
       <c r="I108">
-        <v>0.4732849059559307</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4138160726414703</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3685,25 +3659,25 @@
         <v>3</v>
       </c>
       <c r="D109">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E109">
-        <v>5898.130859375</v>
+        <v>5895.90771484375</v>
       </c>
       <c r="F109">
-        <v>61.452175140380859</v>
+        <v>59.51821517944336</v>
       </c>
       <c r="G109">
-        <v>4.8642120350403897E-2</v>
+        <v>0.0460811167108393</v>
       </c>
       <c r="H109">
-        <v>76.088268841104863</v>
+        <v>76.7384351921868</v>
       </c>
       <c r="I109">
-        <v>0.53819114322003481</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5428720821410344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3717,22 +3691,22 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>15780.0302734375</v>
+        <v>12981.4716796875</v>
       </c>
       <c r="F110">
-        <v>101.9337844848633</v>
+        <v>98.84782409667967</v>
       </c>
       <c r="G110">
-        <v>0.17519340208734879</v>
+        <v>0.1903287909081123</v>
       </c>
       <c r="H110">
-        <v>124.5897262161742</v>
+        <v>113.6526514184345</v>
       </c>
       <c r="I110">
-        <v>-0.37217724063487528</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1273196550210002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3743,25 +3717,25 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E111">
-        <v>3880.313720703125</v>
+        <v>3613.058837890625</v>
       </c>
       <c r="F111">
-        <v>49.427356719970703</v>
+        <v>47.01696014404297</v>
       </c>
       <c r="G111">
-        <v>6.0304479292889297E-2</v>
+        <v>0.0579189927109319</v>
       </c>
       <c r="H111">
-        <v>61.556375144123898</v>
+        <v>58.55157770923606</v>
       </c>
       <c r="I111">
-        <v>2.94032466862107E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0907405152412302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3772,25 +3746,25 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E112">
-        <v>86335.515625</v>
+        <v>85404.015625</v>
       </c>
       <c r="F112">
-        <v>258.84164428710938</v>
+        <v>257.0757446289062</v>
       </c>
       <c r="G112">
-        <v>0.207124134476768</v>
+        <v>0.2056323230043205</v>
       </c>
       <c r="H112">
-        <v>293.79163318220378</v>
+        <v>292.1946317953094</v>
       </c>
       <c r="I112">
-        <v>-3.4891932730675479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.439298296038837</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3801,25 +3775,25 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E113">
-        <v>10755.283203125</v>
+        <v>12912.9404296875</v>
       </c>
       <c r="F113">
-        <v>78.986236572265625</v>
+        <v>86.45470428466797</v>
       </c>
       <c r="G113">
-        <v>6.07827990389374E-2</v>
+        <v>0.0663807247258392</v>
       </c>
       <c r="H113">
-        <v>103.623372197892</v>
+        <v>113.3379990481586</v>
       </c>
       <c r="I113">
-        <v>0.5277998010135011</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4318722168980274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3830,25 +3804,25 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>5072.26513671875</v>
+        <v>5778.7119140625</v>
       </c>
       <c r="F114">
-        <v>56.824470520019531</v>
+        <v>60.36064147949219</v>
       </c>
       <c r="G114">
-        <v>4.4593850654875401E-2</v>
+        <v>0.0477327760170683</v>
       </c>
       <c r="H114">
-        <v>70.868192884852576</v>
+        <v>75.35771476818942</v>
       </c>
       <c r="I114">
-        <v>0.60418327879702949</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5478214505166975</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3862,22 +3836,22 @@
         <v>4</v>
       </c>
       <c r="E115">
-        <v>13408.126953125</v>
+        <v>15158.96484375</v>
       </c>
       <c r="F115">
-        <v>97.424629211425781</v>
+        <v>100.3517837524414</v>
       </c>
       <c r="G115">
-        <v>0.17489175284867101</v>
+        <v>0.1728487045479657</v>
       </c>
       <c r="H115">
-        <v>115.4173983482105</v>
+        <v>122.5655869317025</v>
       </c>
       <c r="I115">
-        <v>-0.16014005816485211</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3219438697793302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3888,25 +3862,25 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E116">
-        <v>3597.878173828125</v>
+        <v>3912.80712890625</v>
       </c>
       <c r="F116">
-        <v>46.983749389648438</v>
+        <v>48.78307342529297</v>
       </c>
       <c r="G116">
-        <v>5.8716439067389103E-2</v>
+        <v>0.0607661497033541</v>
       </c>
       <c r="H116">
-        <v>57.47907097286722</v>
+        <v>59.82997736360028</v>
       </c>
       <c r="I116">
-        <v>9.0290290177669097E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0101192893686329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3917,25 +3891,25 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E117">
-        <v>86087.375</v>
+        <v>85456.8671875</v>
       </c>
       <c r="F117">
-        <v>258.38507080078119</v>
+        <v>257.1895446777344</v>
       </c>
       <c r="G117">
-        <v>0.2067419652222347</v>
+        <v>0.2057361910372008</v>
       </c>
       <c r="H117">
-        <v>293.3701801133937</v>
+        <v>292.3000747770927</v>
       </c>
       <c r="I117">
-        <v>-3.476617665500517</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.44510353938264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3946,25 +3920,25 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E118">
-        <v>12432.373046875</v>
+        <v>20876.740234375</v>
       </c>
       <c r="F118">
-        <v>86.713180541992188</v>
+        <v>118.9284133911133</v>
       </c>
       <c r="G118">
-        <v>6.6172389394700104E-2</v>
+        <v>0.08797122387878969</v>
       </c>
       <c r="H118">
-        <v>110.75543294681979</v>
+        <v>144.4356230257911</v>
       </c>
       <c r="I118">
-        <v>0.45172847902220598</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0870582776018099</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3975,25 +3949,25 @@
         <v>3</v>
       </c>
       <c r="D119">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>5379.4560546875</v>
+        <v>5575.62646484375</v>
       </c>
       <c r="F119">
-        <v>58.459308624267578</v>
+        <v>59.66571807861328</v>
       </c>
       <c r="G119">
-        <v>4.5885935828515398E-2</v>
+        <v>0.0469674811302998</v>
       </c>
       <c r="H119">
-        <v>72.960467567917036</v>
+        <v>74.55676820849861</v>
       </c>
       <c r="I119">
-        <v>0.57992800928333932</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5653348457613763</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -4004,25 +3978,25 @@
         <v>4</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120">
-        <v>22145.5</v>
+        <v>18467.890625</v>
       </c>
       <c r="F120">
-        <v>117.17010498046881</v>
+        <v>114.1442794799805</v>
       </c>
       <c r="G120">
-        <v>0.19321346127504549</v>
+        <v>0.2379194619654917</v>
       </c>
       <c r="H120">
-        <v>147.38523920559251</v>
+        <v>134.3935578215932</v>
       </c>
       <c r="I120">
-        <v>-0.92829641701870635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.6011923423200085</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4033,25 +4007,25 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E121">
-        <v>3923.290771484375</v>
+        <v>4596.7490234375</v>
       </c>
       <c r="F121">
-        <v>48.776420593261719</v>
+        <v>53.99995422363281</v>
       </c>
       <c r="G121">
-        <v>6.0066468747522903E-2</v>
+        <v>0.066584014904775</v>
       </c>
       <c r="H121">
-        <v>61.07516546282389</v>
+        <v>66.24831231626968</v>
       </c>
       <c r="I121">
-        <v>1.29943072035905E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1557052278115319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4062,25 +4036,25 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E122">
-        <v>81892.3984375</v>
+        <v>84528.0859375</v>
       </c>
       <c r="F122">
-        <v>250.30160522460929</v>
+        <v>255.4194030761719</v>
       </c>
       <c r="G122">
-        <v>0.1999212493018078</v>
+        <v>0.2042427356471754</v>
       </c>
       <c r="H122">
-        <v>286.13362093641712</v>
+        <v>290.7046649868294</v>
       </c>
       <c r="I122">
-        <v>-3.258636591476427</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.396227801861107</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4091,25 +4065,25 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E123">
-        <v>12219.423828125</v>
+        <v>16585.158203125</v>
       </c>
       <c r="F123">
-        <v>83.313331604003906</v>
+        <v>101.0833740234375</v>
       </c>
       <c r="G123">
-        <v>6.4078924671584006E-2</v>
+        <v>0.0775758382134371</v>
       </c>
       <c r="H123">
-        <v>109.3037719760901</v>
+        <v>128.6573187772682</v>
       </c>
       <c r="I123">
-        <v>0.45997018187398192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.2715601402952836</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4120,25 +4094,25 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E124">
-        <v>5640.7236328125</v>
+        <v>5716.201171875</v>
       </c>
       <c r="F124">
-        <v>59.289649963378913</v>
+        <v>60.20342254638672</v>
       </c>
       <c r="G124">
-        <v>4.6638446850450703E-2</v>
+        <v>0.047789697281527</v>
       </c>
       <c r="H124">
-        <v>74.557201455988093</v>
+        <v>74.88868445611993</v>
       </c>
       <c r="I124">
-        <v>0.55947208625930067</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5522335663247723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4152,22 +4126,22 @@
         <v>4</v>
       </c>
       <c r="E125">
-        <v>13306.2587890625</v>
+        <v>15040.7958984375</v>
       </c>
       <c r="F125">
-        <v>97.741561889648438</v>
+        <v>100.1684646606445</v>
       </c>
       <c r="G125">
-        <v>0.1781905519446404</v>
+        <v>0.1733854481383411</v>
       </c>
       <c r="H125">
-        <v>114.9794556519423</v>
+        <v>121.8243536618587</v>
       </c>
       <c r="I125">
-        <v>-0.15399888355517311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.302048004989045</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4178,25 +4152,25 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E126">
-        <v>3418.715087890625</v>
+        <v>3868.3662109375</v>
       </c>
       <c r="F126">
-        <v>45.816856384277337</v>
+        <v>49.12246704101562</v>
       </c>
       <c r="G126">
-        <v>5.7330108254436699E-2</v>
+        <v>0.0610713999410722</v>
       </c>
       <c r="H126">
-        <v>55.926418133754687</v>
+        <v>59.9490626945022</v>
       </c>
       <c r="I126">
-        <v>0.134918927340584</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0235745330094122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4207,25 +4181,25 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E127">
-        <v>86419.765625</v>
+        <v>84427.9609375</v>
       </c>
       <c r="F127">
-        <v>259.0281982421875</v>
+        <v>255.2036437988281</v>
       </c>
       <c r="G127">
-        <v>0.2072879871066203</v>
+        <v>0.2040544960595673</v>
       </c>
       <c r="H127">
-        <v>293.93920511286979</v>
+        <v>290.5284926406327</v>
       </c>
       <c r="I127">
-        <v>-3.4945069007615408</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.390173583557866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4236,25 +4210,25 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E128">
-        <v>12039.33984375</v>
+        <v>12345.1337890625</v>
       </c>
       <c r="F128">
-        <v>81.631889343261719</v>
+        <v>83.39451599121094</v>
       </c>
       <c r="G128">
-        <v>6.3050880469723E-2</v>
+        <v>0.0642184432103494</v>
       </c>
       <c r="H128">
-        <v>108.284835852378</v>
+        <v>109.8590176686999</v>
       </c>
       <c r="I128">
-        <v>0.46755813297923648</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4543974071755123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4265,25 +4239,25 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E129">
-        <v>5754.41552734375</v>
+        <v>4806.54248046875</v>
       </c>
       <c r="F129">
-        <v>58.572772979736328</v>
+        <v>54.52534103393555</v>
       </c>
       <c r="G129">
-        <v>4.5651224459263999E-2</v>
+        <v>0.0421132793113944</v>
       </c>
       <c r="H129">
-        <v>75.728781974356011</v>
+        <v>69.27232016691289</v>
       </c>
       <c r="I129">
-        <v>0.55222899522024105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.6278034185510717</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4294,25 +4268,25 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>17045.255859375</v>
+        <v>18100.921875</v>
       </c>
       <c r="F130">
-        <v>113.22524261474609</v>
+        <v>106.6987991333008</v>
       </c>
       <c r="G130">
-        <v>0.2193433241423384</v>
+        <v>0.1789563969755534</v>
       </c>
       <c r="H130">
-        <v>130.43943705273631</v>
+        <v>133.5028249731093</v>
       </c>
       <c r="I130">
-        <v>-0.49335192576084769</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5679990399668782</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4323,25 +4297,25 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E131">
-        <v>3408.5751953125</v>
+        <v>3175.876708984375</v>
       </c>
       <c r="F131">
-        <v>45.569343566894531</v>
+        <v>43.99907302856445</v>
       </c>
       <c r="G131">
-        <v>5.6440289248932199E-2</v>
+        <v>0.0547422751517869</v>
       </c>
       <c r="H131">
-        <v>56.230305850113687</v>
+        <v>54.10417590447671</v>
       </c>
       <c r="I131">
-        <v>0.13903992857455319</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.1972315604632546</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4352,25 +4326,25 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E132">
-        <v>86021.078125</v>
+        <v>85142.1484375</v>
       </c>
       <c r="F132">
-        <v>258.28729248046881</v>
+        <v>256.5710754394531</v>
       </c>
       <c r="G132">
-        <v>0.20666593298909411</v>
+        <v>0.205209900292746</v>
       </c>
       <c r="H132">
-        <v>293.26102914298713</v>
+        <v>291.7567586229204</v>
       </c>
       <c r="I132">
-        <v>-3.4740697430325769</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.427878512051184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4381,25 +4355,25 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E133">
-        <v>13050.40625</v>
+        <v>36611.421875</v>
       </c>
       <c r="F133">
-        <v>84.175811767578125</v>
+        <v>165.7806091308594</v>
       </c>
       <c r="G133">
-        <v>6.4876886403607198E-2</v>
+        <v>0.1167232607350349</v>
       </c>
       <c r="H133">
-        <v>113.6613760415016</v>
+        <v>191.1561373403101</v>
       </c>
       <c r="I133">
-        <v>0.4249804476063348</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.5993438931927266</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4410,25 +4384,25 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E134">
-        <v>6181.93505859375</v>
+        <v>5713.7958984375</v>
       </c>
       <c r="F134">
-        <v>61.279953002929688</v>
+        <v>59.60410308837891</v>
       </c>
       <c r="G134">
-        <v>4.8184380711217299E-2</v>
+        <v>0.046610213917164</v>
       </c>
       <c r="H134">
-        <v>78.297699755711022</v>
+        <v>75.16750262548986</v>
       </c>
       <c r="I134">
-        <v>0.51827508303241532</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.55452979634184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4442,22 +4416,22 @@
         <v>4</v>
       </c>
       <c r="E135">
-        <v>16790.962890625</v>
+        <v>14843.1474609375</v>
       </c>
       <c r="F135">
-        <v>103.91368103027339</v>
+        <v>99.7142333984375</v>
       </c>
       <c r="G135">
-        <v>0.17638227655627969</v>
+        <v>0.1733064658727827</v>
       </c>
       <c r="H135">
-        <v>128.5246650072952</v>
+        <v>121.435626423153</v>
       </c>
       <c r="I135">
-        <v>-0.46180607599719969</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.2926351801675199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4468,25 +4442,25 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E136">
-        <v>3274.45556640625</v>
+        <v>4724.9130859375</v>
       </c>
       <c r="F136">
-        <v>44.800010681152337</v>
+        <v>55.34879302978516</v>
       </c>
       <c r="G136">
-        <v>5.5746605463259297E-2</v>
+        <v>0.06789961271361079</v>
       </c>
       <c r="H136">
-        <v>55.120989031012527</v>
+        <v>67.33269791131328</v>
       </c>
       <c r="I136">
-        <v>0.17320249978149629</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1873408373157366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4497,25 +4471,25 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E137">
-        <v>84357.09375</v>
+        <v>88197.6875</v>
       </c>
       <c r="F137">
-        <v>255.0281982421875</v>
+        <v>262.3207092285156</v>
       </c>
       <c r="G137">
-        <v>0.20390180852179349</v>
+        <v>0.2100598908366035</v>
       </c>
       <c r="H137">
-        <v>290.41041002498611</v>
+        <v>296.9503158031122</v>
       </c>
       <c r="I137">
-        <v>-3.387475588761363</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-3.58759149544978</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -4526,25 +4500,25 @@
         <v>2</v>
       </c>
       <c r="D138">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E138">
-        <v>13339.91796875</v>
+        <v>13713.0439453125</v>
       </c>
       <c r="F138">
-        <v>91.235466003417955</v>
+        <v>84.81310272216797</v>
       </c>
       <c r="G138">
-        <v>6.8774266486628502E-2</v>
+        <v>0.06607307746229631</v>
       </c>
       <c r="H138">
-        <v>115.10238387677499</v>
+        <v>116.2597361178336</v>
       </c>
       <c r="I138">
-        <v>0.41282031444842648</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.394995581833869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4555,25 +4529,25 @@
         <v>3</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>6038.8310546875</v>
+        <v>6320.04150390625</v>
       </c>
       <c r="F139">
-        <v>62.239765167236328</v>
+        <v>62.97658920288086</v>
       </c>
       <c r="G139">
-        <v>4.92778310309573E-2</v>
+        <v>0.0491663260144949</v>
       </c>
       <c r="H139">
-        <v>76.989226904031739</v>
+        <v>79.20083176163607</v>
       </c>
       <c r="I139">
-        <v>0.52724814188372493</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5076293448639371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4587,22 +4561,22 @@
         <v>4</v>
       </c>
       <c r="E140">
-        <v>20920.89453125</v>
+        <v>13279.4013671875</v>
       </c>
       <c r="F140">
-        <v>114.0218200683594</v>
+        <v>98.34832000732422</v>
       </c>
       <c r="G140">
-        <v>0.18905563793648111</v>
+        <v>0.1815486889822538</v>
       </c>
       <c r="H140">
-        <v>143.0665906247969</v>
+        <v>114.7442024674948</v>
       </c>
       <c r="I140">
-        <v>-0.82303417528745892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.1510097331828902</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4613,25 +4587,25 @@
         <v>5</v>
       </c>
       <c r="D141">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E141">
-        <v>3904.5205078125</v>
+        <v>3623.843017578125</v>
       </c>
       <c r="F141">
-        <v>48.888397216796882</v>
+        <v>47.06546020507812</v>
       </c>
       <c r="G141">
-        <v>6.1061933052890802E-2</v>
+        <v>0.0588205607882116</v>
       </c>
       <c r="H141">
-        <v>59.795823801117329</v>
+        <v>57.58688144377408</v>
       </c>
       <c r="I141">
-        <v>1.23193171070429E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.0832813643213898</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -4642,25 +4616,25 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E142">
-        <v>86619.546875</v>
+        <v>75148.375</v>
       </c>
       <c r="F142">
-        <v>259.41522216796881</v>
+        <v>236.3566589355469</v>
       </c>
       <c r="G142">
-        <v>0.20761844894549869</v>
+        <v>0.1880989333112119</v>
       </c>
       <c r="H142">
-        <v>294.28396956849662</v>
+        <v>274.1020907535639</v>
       </c>
       <c r="I142">
-        <v>-3.5061442631479842</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-2.908606613581938</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4671,25 +4645,25 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E143">
-        <v>12952.697265625</v>
+        <v>13154.1376953125</v>
       </c>
       <c r="F143">
-        <v>87.998031616210938</v>
+        <v>84.61441040039062</v>
       </c>
       <c r="G143">
-        <v>6.7113647948808905E-2</v>
+        <v>0.06563015834326159</v>
       </c>
       <c r="H143">
-        <v>113.1866755990891</v>
+        <v>113.5827515817425</v>
       </c>
       <c r="I143">
-        <v>0.42910624715407991</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.4190388760298894</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4700,25 +4674,25 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E144">
-        <v>6177.14599609375</v>
+        <v>5751.99755859375</v>
       </c>
       <c r="F144">
-        <v>62.637042999267578</v>
+        <v>59.83225250244141</v>
       </c>
       <c r="G144">
-        <v>4.9704855162281902E-2</v>
+        <v>0.0469502673939992</v>
       </c>
       <c r="H144">
-        <v>78.026027392255671</v>
+        <v>75.41728369634838</v>
       </c>
       <c r="I144">
-        <v>0.51679891159065494</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.5508469478701928</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4732,22 +4706,22 @@
         <v>4</v>
       </c>
       <c r="E145">
-        <v>19934</v>
+        <v>15332.3212890625</v>
       </c>
       <c r="F145">
-        <v>111.041374206543</v>
+        <v>100.7848129272461</v>
       </c>
       <c r="G145">
-        <v>0.18353367649961719</v>
+        <v>0.1745288889044657</v>
       </c>
       <c r="H145">
-        <v>140.3151222629848</v>
+        <v>123.0313207707947</v>
       </c>
       <c r="I145">
-        <v>-0.74473928211679097</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-0.3272030448108797</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4758,22 +4732,22 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E146">
-        <v>4014.67431640625</v>
+        <v>4631.87939453125</v>
       </c>
       <c r="F146">
-        <v>49.764118194580078</v>
+        <v>54.06839370727539</v>
       </c>
       <c r="G146">
-        <v>6.2268625065810601E-2</v>
+        <v>0.06587172336847449</v>
       </c>
       <c r="H146">
-        <v>60.982715221372089</v>
+        <v>66.92391540207144</v>
       </c>
       <c r="I146">
-        <v>-1.3822473508666101E-2</v>
+        <v>-0.1614959341949676</v>
       </c>
     </row>
   </sheetData>
@@ -4782,14 +4756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4841,43 +4815,43 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>35685.786425781247</v>
+        <v>26710.20830078125</v>
       </c>
       <c r="D2">
-        <v>124.9282783508301</v>
+        <v>113.0091552734375</v>
       </c>
       <c r="E2">
-        <v>0.117779621779807</v>
+        <v>0.1058823291827132</v>
       </c>
       <c r="F2">
-        <v>144.77111713119001</v>
+        <v>133.2317510964566</v>
       </c>
       <c r="G2">
-        <v>-1.05609500876643</v>
+        <v>-0.5990915250330356</v>
       </c>
       <c r="H2">
-        <v>54.2</v>
+        <v>62.8</v>
       </c>
       <c r="I2">
-        <v>61783.370671099663</v>
+        <v>40548.08695933071</v>
       </c>
       <c r="J2">
-        <v>127.3363887450797</v>
+        <v>97.14433420453715</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M2">
-        <v>3810.57763671875</v>
+        <v>4174.2158203125</v>
       </c>
       <c r="N2">
-        <v>48.665904998779297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>50.93564224243164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4885,43 +4859,43 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>28691.080859375001</v>
+        <v>35620.33618164062</v>
       </c>
       <c r="D3">
-        <v>116.5107437133789</v>
+        <v>134.4787895202637</v>
       </c>
       <c r="E3">
-        <v>0.1054918302594248</v>
+        <v>0.1304694686421769</v>
       </c>
       <c r="F3">
-        <v>136.63383136809509</v>
+        <v>158.0997739270333</v>
       </c>
       <c r="G3">
-        <v>-0.65411309942204021</v>
+        <v>-1.048808983131573</v>
       </c>
       <c r="H3">
-        <v>61.8</v>
+        <v>45.2</v>
       </c>
       <c r="I3">
-        <v>41579.600698963011</v>
+        <v>46752.17773169078</v>
       </c>
       <c r="J3">
-        <v>100.5247388764479</v>
+        <v>100.5831869525572</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M3">
-        <v>3725.675048828125</v>
+        <v>3599.329345703125</v>
       </c>
       <c r="N3">
-        <v>47.985088348388672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.78776931762695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4929,43 +4903,43 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>26553.073974609379</v>
+        <v>108537.9588378906</v>
       </c>
       <c r="D4">
-        <v>109.33239517211911</v>
+        <v>185.2238792419434</v>
       </c>
       <c r="E4">
-        <v>0.1011468862002582</v>
+        <v>0.1591476764824018</v>
       </c>
       <c r="F4">
-        <v>130.1029608600777</v>
+        <v>220.6238796942841</v>
       </c>
       <c r="G4">
-        <v>-0.55199350679419978</v>
+        <v>-4.78848591716511</v>
       </c>
       <c r="H4">
-        <v>59.6</v>
+        <v>34.2</v>
       </c>
       <c r="I4">
-        <v>41413.199651671057</v>
+        <v>211422.4298058276</v>
       </c>
       <c r="J4">
-        <v>99.251470140089339</v>
+        <v>233.5776517261254</v>
       </c>
       <c r="K4">
         <v>5</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>3580.9697265625</v>
+        <v>3833.1298828125</v>
       </c>
       <c r="N4">
-        <v>46.670093536376953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.45933151245117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4973,43 +4947,43 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>57488.015917968747</v>
+        <v>30936.94775390625</v>
       </c>
       <c r="D5">
-        <v>157.76667633056641</v>
+        <v>121.7240043640137</v>
       </c>
       <c r="E5">
-        <v>0.1522244816896946</v>
+        <v>0.1197700055638162</v>
       </c>
       <c r="F5">
-        <v>177.41732747995101</v>
+        <v>144.5293655760473</v>
       </c>
       <c r="G5">
-        <v>-2.2725908923256939</v>
+        <v>-0.877543839509063</v>
       </c>
       <c r="H5">
-        <v>38.799999999999997</v>
+        <v>49.6</v>
       </c>
       <c r="I5">
-        <v>105970.3376340838</v>
+        <v>46782.89604440165</v>
       </c>
       <c r="J5">
-        <v>178.37553233548681</v>
+        <v>103.9267984021911</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>4712.1240234375</v>
+        <v>3759.95068359375</v>
       </c>
       <c r="N5">
-        <v>56.141639709472663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>49.03516006469727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5017,43 +4991,43 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>180278.28427734369</v>
+        <v>27643.357421875</v>
       </c>
       <c r="D6">
-        <v>233.03593749999999</v>
+        <v>117.9031524658203</v>
       </c>
       <c r="E6">
-        <v>0.21338394365705279</v>
+        <v>0.1204247619216276</v>
       </c>
       <c r="F6">
-        <v>263.74636221067522</v>
+        <v>138.8670490104637</v>
       </c>
       <c r="G6">
-        <v>-8.6864312072336052</v>
+        <v>-0.6997424882911731</v>
       </c>
       <c r="H6">
-        <v>33.4</v>
+        <v>54.8</v>
       </c>
       <c r="I6">
-        <v>380557.50763489428</v>
+        <v>40299.8709638311</v>
       </c>
       <c r="J6">
-        <v>348.94927295724301</v>
+        <v>93.49966720838522</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>5213.78662109375</v>
+        <v>4268.064453125</v>
       </c>
       <c r="N6">
-        <v>59.541847229003913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51.94306182861328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5061,43 +5035,43 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>101898.90390624999</v>
+        <v>31626.00419921875</v>
       </c>
       <c r="D7">
-        <v>171.78965301513671</v>
+        <v>123.8247482299805</v>
       </c>
       <c r="E7">
-        <v>0.1520329520359589</v>
+        <v>0.1221904754518522</v>
       </c>
       <c r="F7">
-        <v>206.21939025152861</v>
+        <v>145.0820849778811</v>
       </c>
       <c r="G7">
-        <v>-4.4783158596241517</v>
+        <v>-0.8852858703658129</v>
       </c>
       <c r="H7">
-        <v>45.6</v>
+        <v>53.2</v>
       </c>
       <c r="I7">
-        <v>208964.52565071109</v>
+        <v>48435.68442320033</v>
       </c>
       <c r="J7">
-        <v>229.04040940391019</v>
+        <v>107.4157301837888</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>3621.72314453125</v>
+        <v>3647.9462890625</v>
       </c>
       <c r="N7">
-        <v>46.998710632324219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.11026000976562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5105,43 +5079,43 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>65825.260058593747</v>
+        <v>59130.39409179687</v>
       </c>
       <c r="D8">
-        <v>150.12521133422851</v>
+        <v>159.9009559631348</v>
       </c>
       <c r="E8">
-        <v>0.15106915796400139</v>
+        <v>0.1535485518036276</v>
       </c>
       <c r="F8">
-        <v>186.12486060083251</v>
+        <v>177.7626389795688</v>
       </c>
       <c r="G8">
-        <v>-2.7223902382401359</v>
+        <v>-2.323853933093667</v>
       </c>
       <c r="H8">
-        <v>46.2</v>
+        <v>37.2</v>
       </c>
       <c r="I8">
-        <v>123225.83984101791</v>
+        <v>109996.2378547591</v>
       </c>
       <c r="J8">
-        <v>158.51419409056979</v>
+        <v>183.463557026765</v>
       </c>
       <c r="K8">
         <v>5</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>4324.62451171875</v>
+        <v>4095.747314453125</v>
       </c>
       <c r="N8">
-        <v>52.194000244140632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>50.97608947753906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5149,43 +5123,43 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>28548.966113281251</v>
+        <v>28753.73994140625</v>
       </c>
       <c r="D9">
-        <v>120.0849678039551</v>
+        <v>120.1567436218262</v>
       </c>
       <c r="E9">
-        <v>0.12475338391521031</v>
+        <v>0.1208272044611808</v>
       </c>
       <c r="F9">
-        <v>141.67185433068391</v>
+        <v>141.9161664922023</v>
       </c>
       <c r="G9">
-        <v>-0.77870383555376999</v>
+        <v>-0.8080695598509295</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>48.4</v>
       </c>
       <c r="I9">
-        <v>41665.92409583761</v>
+        <v>42561.20928139895</v>
       </c>
       <c r="J9">
-        <v>95.971987161014098</v>
+        <v>96.22328520033109</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M9">
-        <v>4899.40673828125</v>
+        <v>5650.982421875</v>
       </c>
       <c r="N9">
-        <v>55.988296508789063</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>59.85900115966797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5193,43 +5167,43 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>24858.289941406249</v>
+        <v>34389.66323242187</v>
       </c>
       <c r="D10">
-        <v>111.55619735717769</v>
+        <v>128.9626838684082</v>
       </c>
       <c r="E10">
-        <v>0.1118649091666462</v>
+        <v>0.1272787645774306</v>
       </c>
       <c r="F10">
-        <v>135.51519379039649</v>
+        <v>150.8093248760715</v>
       </c>
       <c r="G10">
-        <v>-0.61152082532504948</v>
+        <v>-1.081158652577322</v>
       </c>
       <c r="H10">
-        <v>39.6</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>33325.51772651184</v>
+        <v>52549.01226519168</v>
       </c>
       <c r="J10">
-        <v>81.522179785112399</v>
+        <v>114.0055820602099</v>
       </c>
       <c r="K10">
         <v>5</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>5256.7919921875</v>
+        <v>3938.680419921875</v>
       </c>
       <c r="N10">
-        <v>58.059108734130859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.88082504272461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5237,43 +5211,43 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>25993.59897460938</v>
+        <v>26994.77470703125</v>
       </c>
       <c r="D11">
-        <v>113.9008171081543</v>
+        <v>120.7855819702148</v>
       </c>
       <c r="E11">
-        <v>0.1144160440936037</v>
+        <v>0.1290356745833114</v>
       </c>
       <c r="F11">
-        <v>137.1092970593094</v>
+        <v>142.3868672298491</v>
       </c>
       <c r="G11">
-        <v>-0.67205265740201747</v>
+        <v>-0.7099215972301989</v>
       </c>
       <c r="H11">
-        <v>35.6</v>
+        <v>33.4</v>
       </c>
       <c r="I11">
-        <v>34358.470658176673</v>
+        <v>33497.78284116584</v>
       </c>
       <c r="J11">
-        <v>85.059542784391624</v>
+        <v>81.92916887752081</v>
       </c>
       <c r="K11">
         <v>5</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>3923.290771484375</v>
+        <v>4596.7490234375</v>
       </c>
       <c r="N11">
-        <v>48.776420593261719</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53.99995422363281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5281,43 +5255,43 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>23833.81381835938</v>
+        <v>24633.48798828125</v>
       </c>
       <c r="D12">
-        <v>107.8121459960937</v>
+        <v>110.6051895141602</v>
       </c>
       <c r="E12">
-        <v>0.10922179521732819</v>
+        <v>0.1106721355997096</v>
       </c>
       <c r="F12">
-        <v>128.23593351720521</v>
+        <v>132.6571819813921</v>
       </c>
       <c r="G12">
-        <v>-0.48541199224884007</v>
+        <v>-0.5542858418069618</v>
       </c>
       <c r="H12">
-        <v>49.2</v>
+        <v>37.6</v>
       </c>
       <c r="I12">
-        <v>35169.92478928178</v>
+        <v>34296.66182451185</v>
       </c>
       <c r="J12">
-        <v>86.672630912622665</v>
+        <v>84.39266915299822</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>3597.878173828125</v>
+        <v>3912.80712890625</v>
       </c>
       <c r="N12">
-        <v>46.983749389648438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.78307342529297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5325,43 +5299,43 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>25712.251562500001</v>
+        <v>25026.80346679688</v>
       </c>
       <c r="D13">
-        <v>114.2827293395996</v>
+        <v>111.1048362731934</v>
       </c>
       <c r="E13">
-        <v>0.1144142954057502</v>
+        <v>0.113133708816772</v>
       </c>
       <c r="F13">
-        <v>137.07288704634141</v>
+        <v>132.9483935187702</v>
       </c>
       <c r="G13">
-        <v>-0.65162439812192552</v>
+        <v>-0.5505389875226949</v>
       </c>
       <c r="H13">
-        <v>33.4</v>
+        <v>40.2</v>
       </c>
       <c r="I13">
-        <v>33458.443867667847</v>
+        <v>35582.97647493587</v>
       </c>
       <c r="J13">
-        <v>82.652011819401253</v>
+        <v>86.80091308168105</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>3904.5205078125</v>
+        <v>3623.843017578125</v>
       </c>
       <c r="N13">
-        <v>48.888397216796882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.06546020507812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5369,43 +5343,43 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>28375.727343750001</v>
+        <v>24606.23408203125</v>
       </c>
       <c r="D14">
-        <v>116.8743293762207</v>
+        <v>109.6381271362305</v>
       </c>
       <c r="E14">
-        <v>0.1170641184073062</v>
+        <v>0.1092345374270014</v>
       </c>
       <c r="F14">
-        <v>143.36421522507129</v>
+        <v>132.2191143620168</v>
       </c>
       <c r="G14">
-        <v>-0.81315843947587607</v>
+        <v>-0.5454840847162724</v>
       </c>
       <c r="H14">
-        <v>38</v>
+        <v>35.6</v>
       </c>
       <c r="I14">
-        <v>37862.236665150143</v>
+        <v>34313.68786767936</v>
       </c>
       <c r="J14">
-        <v>88.659431057202809</v>
+        <v>85.15803046172958</v>
       </c>
       <c r="K14">
         <v>5</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>4625.2666015625</v>
+        <v>3420.9814453125</v>
       </c>
       <c r="N14">
-        <v>54.161415100097663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>46.65570831298828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5413,43 +5387,43 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>47743.889355468753</v>
+        <v>31417.00209960937</v>
       </c>
       <c r="D15">
-        <v>146.4880081176758</v>
+        <v>121.7830024719238</v>
       </c>
       <c r="E15">
-        <v>0.14102635227848931</v>
+        <v>0.1210771514981793</v>
       </c>
       <c r="F15">
-        <v>165.61691790657241</v>
+        <v>144.3783531848962</v>
       </c>
       <c r="G15">
-        <v>-1.7649386233985671</v>
+        <v>-0.8686726161754118</v>
       </c>
       <c r="H15">
-        <v>24.6</v>
+        <v>29.6</v>
       </c>
       <c r="I15">
-        <v>84693.011044509214</v>
+        <v>47872.16585904135</v>
       </c>
       <c r="J15">
-        <v>156.5380168991349</v>
+        <v>101.0762357336028</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>4137.982421875</v>
+        <v>3596.344482421875</v>
       </c>
       <c r="N15">
-        <v>50.533279418945313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>46.92557144165039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5457,43 +5431,43 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>24873.3203125</v>
+        <v>23963.82353515625</v>
       </c>
       <c r="D16">
-        <v>112.33619689941411</v>
+        <v>109.9224685668945</v>
       </c>
       <c r="E16">
-        <v>0.1147017919186875</v>
+        <v>0.1111439666988028</v>
       </c>
       <c r="F16">
-        <v>132.84086996053699</v>
+        <v>129.9579462019298</v>
       </c>
       <c r="G16">
-        <v>-0.53971028879768812</v>
+        <v>-0.4899805083002297</v>
       </c>
       <c r="H16">
-        <v>37.6</v>
+        <v>36.6</v>
       </c>
       <c r="I16">
-        <v>35341.388965654347</v>
+        <v>34365.62719935425</v>
       </c>
       <c r="J16">
-        <v>85.966197118125109</v>
+        <v>84.36016827622339</v>
       </c>
       <c r="K16">
         <v>5</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>3643.86181640625</v>
+        <v>3614.57373046875</v>
       </c>
       <c r="N16">
-        <v>47.464714050292969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.59943771362305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5501,43 +5475,43 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>24933.470410156249</v>
+        <v>24571.28715820313</v>
       </c>
       <c r="D17">
-        <v>111.6054893493652</v>
+        <v>108.764274597168</v>
       </c>
       <c r="E17">
-        <v>0.11835474108537559</v>
+        <v>0.1088169781417303</v>
       </c>
       <c r="F17">
-        <v>132.92451316849071</v>
+        <v>131.4533662707663</v>
       </c>
       <c r="G17">
-        <v>-0.5658063539496716</v>
+        <v>-0.5357480474669811</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="I17">
-        <v>34785.788374412128</v>
+        <v>33994.75904272438</v>
       </c>
       <c r="J17">
-        <v>86.324586518861537</v>
+        <v>85.48212231381348</v>
       </c>
       <c r="K17">
         <v>5</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>3408.5751953125</v>
+        <v>3175.876708984375</v>
       </c>
       <c r="N17">
-        <v>45.569343566894531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>43.99907302856445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5545,43 +5519,43 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>25939.612890625001</v>
+        <v>22803.7421875</v>
       </c>
       <c r="D18">
-        <v>114.17115783691411</v>
+        <v>107.1313056945801</v>
       </c>
       <c r="E18">
-        <v>0.1140478507244035</v>
+        <v>0.1082159942642826</v>
       </c>
       <c r="F18">
-        <v>137.35890200883961</v>
+        <v>130.6114724409042</v>
       </c>
       <c r="G18">
-        <v>-0.66376017200574133</v>
+        <v>-0.4854839537375406</v>
       </c>
       <c r="H18">
-        <v>34.4</v>
+        <v>42</v>
       </c>
       <c r="I18">
-        <v>34489.272901989847</v>
+        <v>29622.10396658473</v>
       </c>
       <c r="J18">
-        <v>84.549834495299663</v>
+        <v>74.66484032969127</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>4014.67431640625</v>
+        <v>4631.87939453125</v>
       </c>
       <c r="N18">
-        <v>49.764118194580078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>54.06839370727539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5589,43 +5563,43 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>24197.81215820312</v>
+        <v>24254.98315429688</v>
       </c>
       <c r="D19">
-        <v>110.2131393432617</v>
+        <v>110.6030708312988</v>
       </c>
       <c r="E19">
-        <v>0.1102446246004111</v>
+        <v>0.1138786847763474</v>
       </c>
       <c r="F19">
-        <v>131.94352831392041</v>
+        <v>131.2998168031478</v>
       </c>
       <c r="G19">
-        <v>-0.53449563798093602</v>
+        <v>-0.5051632769091999</v>
       </c>
       <c r="H19">
-        <v>30.6</v>
+        <v>35.4</v>
       </c>
       <c r="I19">
-        <v>33480.75490525012</v>
+        <v>34476.47006853635</v>
       </c>
       <c r="J19">
-        <v>82.560373509006865</v>
+        <v>84.68001990869794</v>
       </c>
       <c r="K19">
         <v>5</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>3880.313720703125</v>
+        <v>3613.058837890625</v>
       </c>
       <c r="N19">
-        <v>49.427356719970703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.01696014404297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5633,43 +5607,43 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>24160.280322265629</v>
+        <v>31606.8748046875</v>
       </c>
       <c r="D20">
-        <v>110.9517890930176</v>
+        <v>131.8914497375488</v>
       </c>
       <c r="E20">
-        <v>0.1112704805632645</v>
+        <v>0.1266813634306815</v>
       </c>
       <c r="F20">
-        <v>131.30512064836401</v>
+        <v>152.6418812660021</v>
       </c>
       <c r="G20">
-        <v>-0.51276102371203547</v>
+        <v>-0.8310192870709796</v>
       </c>
       <c r="H20">
-        <v>38</v>
+        <v>33.2</v>
       </c>
       <c r="I20">
-        <v>33823.487016153464</v>
+        <v>35588.72545186123</v>
       </c>
       <c r="J20">
-        <v>83.201674298034433</v>
+        <v>91.33886631708499</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>3870.295654296875</v>
+        <v>3820.0673828125</v>
       </c>
       <c r="N20">
-        <v>48.7203369140625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.28108215332031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5677,43 +5651,43 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>25063.767578125</v>
+        <v>29407.0853515625</v>
       </c>
       <c r="D21">
-        <v>110.49134979248051</v>
+        <v>127.4037628173828</v>
       </c>
       <c r="E21">
-        <v>0.1103712164246915</v>
+        <v>0.1219498907062677</v>
       </c>
       <c r="F21">
-        <v>133.77315179570149</v>
+        <v>149.3697445846373</v>
       </c>
       <c r="G21">
-        <v>-0.56388355772190601</v>
+        <v>-0.7905337252770656</v>
       </c>
       <c r="H21">
-        <v>37.200000000000003</v>
+        <v>30.8</v>
       </c>
       <c r="I21">
-        <v>34495.838785806569</v>
+        <v>33693.43260072318</v>
       </c>
       <c r="J21">
-        <v>85.61034918620328</v>
+        <v>84.72366781614038</v>
       </c>
       <c r="K21">
         <v>5</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M21">
-        <v>3274.45556640625</v>
+        <v>4724.9130859375</v>
       </c>
       <c r="N21">
-        <v>44.800010681152337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>55.34879302978516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5721,43 +5695,43 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>33632.633447265624</v>
+        <v>25897.0484375</v>
       </c>
       <c r="D22">
-        <v>119.53964691162111</v>
+        <v>115.6812942504883</v>
       </c>
       <c r="E22">
-        <v>0.1175970654590752</v>
+        <v>0.1148252312594013</v>
       </c>
       <c r="F22">
-        <v>148.211200646788</v>
+        <v>138.8021727719565</v>
       </c>
       <c r="G22">
-        <v>-1.0180094789206959</v>
+        <v>-0.6428573653818221</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>32.8</v>
       </c>
       <c r="I22">
-        <v>52378.556388874087</v>
+        <v>32600.90706784861</v>
       </c>
       <c r="J22">
-        <v>101.89127223584801</v>
+        <v>81.03561703658812</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>3553.909423828125</v>
+        <v>4204.62939453125</v>
       </c>
       <c r="N22">
-        <v>46.766437530517578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51.37819671630859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5765,43 +5739,43 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>23295.503955078129</v>
+        <v>25147.721484375</v>
       </c>
       <c r="D23">
-        <v>107.2926010131836</v>
+        <v>113.1994262695312</v>
       </c>
       <c r="E23">
-        <v>0.10923185620458389</v>
+        <v>0.1128130238443106</v>
       </c>
       <c r="F23">
-        <v>128.18009363083851</v>
+        <v>135.2048169153157</v>
       </c>
       <c r="G23">
-        <v>-0.4516548559115468</v>
+        <v>-0.5701815134441369</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I23">
-        <v>33025.893692857673</v>
+        <v>33659.65708321801</v>
       </c>
       <c r="J23">
-        <v>82.464164160029767</v>
+        <v>82.8516137440306</v>
       </c>
       <c r="K23">
         <v>5</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>3418.715087890625</v>
+        <v>3868.3662109375</v>
       </c>
       <c r="N23">
-        <v>45.816856384277337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>49.12246704101562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5809,43 +5783,43 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>31288.5400390625</v>
+        <v>36142.93872070312</v>
       </c>
       <c r="D24">
-        <v>111.4091255187988</v>
+        <v>134.9787773132324</v>
       </c>
       <c r="E24">
-        <v>0.10217626016686659</v>
+        <v>0.1213064477003521</v>
       </c>
       <c r="F24">
-        <v>135.6590994598015</v>
+        <v>156.3955616739831</v>
       </c>
       <c r="G24">
-        <v>-0.81589948340686258</v>
+        <v>-0.9997073479207217</v>
       </c>
       <c r="H24">
-        <v>57.8</v>
+        <v>45.4</v>
       </c>
       <c r="I24">
-        <v>53641.486737300489</v>
+        <v>44663.02141247262</v>
       </c>
       <c r="J24">
-        <v>108.4879590788349</v>
+        <v>110.3196663165694</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>3662.671142578125</v>
+        <v>3743.862060546875</v>
       </c>
       <c r="N24">
-        <v>46.640106201171882</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.19223403930664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5853,43 +5827,43 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>56600.462500000001</v>
+        <v>84907.79692382812</v>
       </c>
       <c r="D25">
-        <v>155.94213333129881</v>
+        <v>189.9938110351563</v>
       </c>
       <c r="E25">
-        <v>0.1499693594373798</v>
+        <v>0.1610079808170871</v>
       </c>
       <c r="F25">
-        <v>174.6664458549505</v>
+        <v>218.6037994829666</v>
       </c>
       <c r="G25">
-        <v>-2.1889542867654539</v>
+        <v>-3.350460086689215</v>
       </c>
       <c r="H25">
-        <v>38.6</v>
+        <v>34.2</v>
       </c>
       <c r="I25">
-        <v>104311.3013572394</v>
+        <v>115024.7330238655</v>
       </c>
       <c r="J25">
-        <v>178.43719540433631</v>
+        <v>197.317568857638</v>
       </c>
       <c r="K25">
         <v>5</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>3756.8994140625</v>
+        <v>3505.2275390625</v>
       </c>
       <c r="N25">
-        <v>47.672214508056641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>46.11997985839844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5897,43 +5871,43 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>67285.988964843753</v>
+        <v>33205.12587890625</v>
       </c>
       <c r="D26">
-        <v>188.65048980712891</v>
+        <v>126.2358985900879</v>
       </c>
       <c r="E26">
-        <v>0.17215887502533661</v>
+        <v>0.130955816300415</v>
       </c>
       <c r="F26">
-        <v>210.24139519426379</v>
+        <v>146.9379720415677</v>
       </c>
       <c r="G26">
-        <v>-2.6460175754538628</v>
+        <v>-1.019817543269256</v>
       </c>
       <c r="H26">
-        <v>28.2</v>
+        <v>46</v>
       </c>
       <c r="I26">
-        <v>84176.776491705023</v>
+        <v>53161.21631337614</v>
       </c>
       <c r="J26">
-        <v>161.09734498572621</v>
+        <v>115.0014208430826</v>
       </c>
       <c r="K26">
         <v>5</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>5733.232421875</v>
+        <v>4604.30224609375</v>
       </c>
       <c r="N26">
-        <v>60.571426391601563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53.99228286743164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5941,43 +5915,43 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>32832.225195312501</v>
+        <v>43769.0138671875</v>
       </c>
       <c r="D27">
-        <v>120.0105735778809</v>
+        <v>147.2128852844238</v>
       </c>
       <c r="E27">
-        <v>0.11230218050069669</v>
+        <v>0.1300835736760702</v>
       </c>
       <c r="F27">
-        <v>138.3683655702593</v>
+        <v>171.004113121787</v>
       </c>
       <c r="G27">
-        <v>-0.90360751916183535</v>
+        <v>-1.478019843555407</v>
       </c>
       <c r="H27">
-        <v>61.6</v>
+        <v>43.2</v>
       </c>
       <c r="I27">
-        <v>57188.546628335753</v>
+        <v>53728.65128160737</v>
       </c>
       <c r="J27">
-        <v>124.17845545289509</v>
+        <v>119.9276291145552</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>3976.59521484375</v>
+        <v>4250.689453125</v>
       </c>
       <c r="N27">
-        <v>49.427791595458977</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>54.06869506835938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5985,43 +5959,43 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>26464.337988281251</v>
+        <v>89103.04301757812</v>
       </c>
       <c r="D28">
-        <v>111.981909942627</v>
+        <v>209.380884552002</v>
       </c>
       <c r="E28">
-        <v>0.1066932072720873</v>
+        <v>0.1857398886611</v>
       </c>
       <c r="F28">
-        <v>132.13181545486299</v>
+        <v>230.8951749683203</v>
       </c>
       <c r="G28">
-        <v>-0.58660530307493708</v>
+        <v>-3.706664889232191</v>
       </c>
       <c r="H28">
-        <v>52.2</v>
+        <v>32.2</v>
       </c>
       <c r="I28">
-        <v>41291.776628419517</v>
+        <v>125421.0743031866</v>
       </c>
       <c r="J28">
-        <v>97.499483834253809</v>
+        <v>203.1250159934771</v>
       </c>
       <c r="K28">
         <v>5</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>3787.716796875</v>
+        <v>3872.371826171875</v>
       </c>
       <c r="N28">
-        <v>48.383140563964851</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48.81060791015625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6029,43 +6003,43 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>28141.69887695312</v>
+        <v>29681.77543945313</v>
       </c>
       <c r="D29">
-        <v>117.309684753418</v>
+        <v>122.3764236450195</v>
       </c>
       <c r="E29">
-        <v>0.1164513166523613</v>
+        <v>0.1235847215600981</v>
       </c>
       <c r="F29">
-        <v>139.5398623336049</v>
+        <v>146.4349917317263</v>
       </c>
       <c r="G29">
-        <v>-0.73693147082445642</v>
+        <v>-0.8533246379042652</v>
       </c>
       <c r="H29">
-        <v>51.4</v>
+        <v>53.6</v>
       </c>
       <c r="I29">
-        <v>41408.162637066947</v>
+        <v>39559.32126283634</v>
       </c>
       <c r="J29">
-        <v>96.694435796459217</v>
+        <v>93.56742107222155</v>
       </c>
       <c r="K29">
         <v>5</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>4034.126708984375</v>
+        <v>3538.288818359375</v>
       </c>
       <c r="N29">
-        <v>50.717117309570313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47.22919464111328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6073,40 +6047,40 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>35199.489941406253</v>
+        <v>55354.9380859375</v>
       </c>
       <c r="D30">
-        <v>130.96417465209959</v>
+        <v>154.9145370483398</v>
       </c>
       <c r="E30">
-        <v>0.13196268722890631</v>
+        <v>0.1504675352408687</v>
       </c>
       <c r="F30">
-        <v>150.81378655042241</v>
+        <v>173.8807878870282</v>
       </c>
       <c r="G30">
-        <v>-1.12150838826652</v>
+        <v>-2.148751064856694</v>
       </c>
       <c r="H30">
-        <v>44.6</v>
+        <v>43.8</v>
       </c>
       <c r="I30">
-        <v>57054.928836235769</v>
+        <v>102127.9581706811</v>
       </c>
       <c r="J30">
-        <v>119.9341914682151</v>
+        <v>174.1920947808812</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>5086.3681640625</v>
+        <v>4574.76904296875</v>
       </c>
       <c r="N30">
-        <v>56.780910491943359</v>
+        <v>53.80073928833008</v>
       </c>
     </row>
   </sheetData>
